--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>BBlind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBuyin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +603,7 @@
   <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -632,7 +636,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>33</v>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TTask" sheetId="1" r:id="rId1"/>
+    <sheet name="TexasRoom" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "TTask" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>BBuyin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TexasRoom" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,81 +621,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -775,7 +775,7 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -792,7 +792,7 @@
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>3002</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2460,9 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2473,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TexasRoom" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>ObjectType</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
@@ -183,6 +179,50 @@
   </si>
   <si>
     <t>TableName: "TexasRoom" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规则是类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>*1000+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺序码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,81 +661,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -707,10 +747,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="5"/>
@@ -722,7 +762,7 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -740,7 +780,7 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -758,7 +798,7 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -775,7 +815,7 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -792,7 +832,7 @@
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -809,7 +849,7 @@
         <v>3002</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -822,28 +862,72 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11">
+        <v>11001</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12">
+        <v>11002</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13">
+        <v>11003</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14">
+        <v>11004</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15"/>
@@ -2460,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2471,7 +2555,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -223,6 +223,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ante</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:N306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,7 +668,7 @@
     <col min="13" max="13" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -696,8 +708,11 @@
       <c r="M1" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -737,15 +752,18 @@
       <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -756,8 +774,11 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -775,7 +796,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -793,7 +814,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -810,7 +831,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -827,7 +848,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3001</v>
       </c>
@@ -844,7 +865,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3002</v>
       </c>
@@ -861,7 +882,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11001</v>
       </c>
@@ -878,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11002</v>
       </c>
@@ -895,7 +916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11003</v>
       </c>
@@ -912,7 +933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11004</v>
       </c>
@@ -929,13 +950,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="TexasRoom" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -230,12 +231,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>房间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小盲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每局抽水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌CD（超时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端出牌CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前注（强制注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelayPosTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>bt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个房间最多机器人数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepSeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initrbt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级场</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级场</t>
+  </si>
+  <si>
+    <t>高级场</t>
+  </si>
+  <si>
+    <t>奥马哈初级场</t>
+  </si>
+  <si>
+    <t>奥马哈中级场</t>
+  </si>
+  <si>
+    <t>奥马哈高级场</t>
+  </si>
+  <si>
+    <t>游戏场私人房</t>
+  </si>
+  <si>
+    <t>奥马哈私人房</t>
+  </si>
+  <si>
+    <t>锦标赛</t>
+  </si>
+  <si>
+    <t>坐满即玩</t>
+  </si>
+  <si>
+    <t>新手引导</t>
+  </si>
+  <si>
+    <t>新手引导玩法</t>
   </si>
 </sst>
 </file>
@@ -652,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N306"/>
+  <dimension ref="A1:S306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,10 +823,16 @@
     <col min="3" max="3" width="11.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="14" max="14" width="12.3984375" customWidth="1"/>
+    <col min="16" max="16" width="12.296875" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" customWidth="1"/>
+    <col min="18" max="18" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -711,8 +875,23 @@
       <c r="N1" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -753,32 +932,94 @@
         <v>26</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="N4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -791,12 +1032,53 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6">
+        <v>30</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>4</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -807,14 +1089,55 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6">
+        <v>15</v>
+      </c>
+      <c r="M6" s="6">
+        <v>30</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -825,13 +1148,55 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>10000</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>4</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -842,13 +1207,55 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6">
+        <v>30</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>3</v>
+      </c>
+      <c r="P8" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>4</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3001</v>
       </c>
@@ -859,13 +1266,55 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="E9">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>4000</v>
+      </c>
+      <c r="G9">
+        <v>40000</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>20</v>
+      </c>
+      <c r="L9" s="6">
+        <v>15</v>
+      </c>
+      <c r="M9" s="6">
+        <v>30</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3</v>
+      </c>
+      <c r="P9" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>8</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3002</v>
       </c>
@@ -876,13 +1325,55 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>100000</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <v>4000</v>
+      </c>
+      <c r="G10">
+        <v>40000</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3</v>
+      </c>
+      <c r="P10" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>8</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11001</v>
       </c>
@@ -893,13 +1384,55 @@
         <v>11</v>
       </c>
       <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <v>20000</v>
+      </c>
+      <c r="G11">
+        <v>200000</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11" s="6">
+        <v>15</v>
+      </c>
+      <c r="M11" s="6">
+        <v>30</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>3</v>
+      </c>
+      <c r="P11" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>8</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11002</v>
       </c>
@@ -910,13 +1443,55 @@
         <v>11</v>
       </c>
       <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="F12">
+        <v>40000</v>
+      </c>
+      <c r="G12">
+        <v>400000</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="6">
+        <v>15</v>
+      </c>
+      <c r="M12" s="6">
+        <v>30</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3</v>
+      </c>
+      <c r="P12" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>8</v>
+      </c>
+      <c r="R12" s="6">
+        <v>2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11003</v>
       </c>
@@ -927,13 +1502,55 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="E13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+      <c r="F13">
+        <v>60000</v>
+      </c>
+      <c r="G13">
+        <v>600000</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3</v>
+      </c>
+      <c r="P13" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>8</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2</v>
+      </c>
+      <c r="S13" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11004</v>
       </c>
@@ -944,19 +1561,61 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+      <c r="F14">
+        <v>80000</v>
+      </c>
+      <c r="G14">
+        <v>800000</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>20</v>
+      </c>
+      <c r="L14" s="6">
+        <v>15</v>
+      </c>
+      <c r="M14" s="6">
+        <v>30</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>3</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>8</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2</v>
+      </c>
+      <c r="S14" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2640,4 +3299,129 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -826,7 +826,7 @@
     <col min="11" max="11" width="12.19921875" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="12.69921875" customWidth="1"/>
-    <col min="14" max="14" width="12.3984375" customWidth="1"/>
+    <col min="14" max="14" width="15.8984375" customWidth="1"/>
     <col min="16" max="16" width="12.296875" customWidth="1"/>
     <col min="17" max="17" width="11.19921875" customWidth="1"/>
     <col min="18" max="18" width="9.69921875" customWidth="1"/>
@@ -1059,9 +1059,7 @@
       <c r="M5" s="6">
         <v>30</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>3</v>
       </c>
@@ -1118,9 +1116,7 @@
       <c r="M6" s="6">
         <v>30</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>3</v>
       </c>
@@ -1177,9 +1173,7 @@
       <c r="M7">
         <v>30</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>3</v>
       </c>
@@ -1236,9 +1230,7 @@
       <c r="M8" s="6">
         <v>30</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>3</v>
       </c>
@@ -1295,9 +1287,7 @@
       <c r="M9" s="6">
         <v>30</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>3</v>
       </c>
@@ -1354,9 +1344,7 @@
       <c r="M10">
         <v>30</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>3</v>
       </c>
@@ -1413,9 +1401,7 @@
       <c r="M11" s="6">
         <v>30</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>3</v>
       </c>
@@ -1472,9 +1458,7 @@
       <c r="M12" s="6">
         <v>30</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>3</v>
       </c>
@@ -1531,9 +1515,7 @@
       <c r="M13">
         <v>30</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>3</v>
       </c>
@@ -1590,9 +1572,7 @@
       <c r="M14" s="6">
         <v>30</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>3</v>
       </c>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ante</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +268,6 @@
   </si>
   <si>
     <t>等待时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前注（强制注）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,13 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -394,6 +379,18 @@
   </si>
   <si>
     <t>新手引导玩法</t>
+  </si>
+  <si>
+    <t>前注（强制注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ante</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -813,7 +810,7 @@
   <dimension ref="A1:S306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -873,22 +870,22 @@
         <v>37</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -932,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>26</v>
@@ -956,9 +953,7 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="N3" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -968,55 +963,55 @@
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="P4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -3293,10 +3288,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3304,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3312,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3320,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3328,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3336,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3344,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3352,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3360,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3368,7 +3363,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3376,7 +3371,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3384,7 +3379,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3392,7 +3387,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -389,7 +389,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +814,7 @@
   <dimension ref="A1:S306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -953,7 +957,9 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -814,7 +814,7 @@
   <dimension ref="A1:S306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1060,9 @@
       <c r="M5" s="6">
         <v>30</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
       <c r="O5" s="6">
         <v>3</v>
       </c>
@@ -1117,7 +1119,9 @@
       <c r="M6" s="6">
         <v>30</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>2</v>
+      </c>
       <c r="O6" s="6">
         <v>3</v>
       </c>
@@ -1174,7 +1178,9 @@
       <c r="M7">
         <v>30</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>3</v>
+      </c>
       <c r="O7" s="6">
         <v>3</v>
       </c>
@@ -1231,7 +1237,9 @@
       <c r="M8" s="6">
         <v>30</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6">
+        <v>4</v>
+      </c>
       <c r="O8" s="6">
         <v>3</v>
       </c>
@@ -1288,7 +1296,9 @@
       <c r="M9" s="6">
         <v>30</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>5</v>
+      </c>
       <c r="O9" s="6">
         <v>3</v>
       </c>
@@ -1345,7 +1355,9 @@
       <c r="M10">
         <v>30</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6">
+        <v>6</v>
+      </c>
       <c r="O10" s="6">
         <v>3</v>
       </c>
@@ -1402,7 +1414,9 @@
       <c r="M11" s="6">
         <v>30</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6">
+        <v>7</v>
+      </c>
       <c r="O11" s="6">
         <v>3</v>
       </c>
@@ -1459,7 +1473,9 @@
       <c r="M12" s="6">
         <v>30</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>8</v>
+      </c>
       <c r="O12" s="6">
         <v>3</v>
       </c>
@@ -1516,7 +1532,9 @@
       <c r="M13">
         <v>30</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>9</v>
+      </c>
       <c r="O13" s="6">
         <v>3</v>
       </c>
@@ -1573,7 +1591,9 @@
       <c r="M14" s="6">
         <v>30</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6">
+        <v>10</v>
+      </c>
       <c r="O14" s="6">
         <v>3</v>
       </c>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S306"/>
+  <dimension ref="A1:S312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,46 +1140,46 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2001</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6">
+        <v>200</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6">
+        <v>30</v>
+      </c>
+      <c r="N7" s="6">
         <v>2</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
-      </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7" s="6">
-        <v>3</v>
       </c>
       <c r="O7" s="6">
         <v>3</v>
@@ -1194,38 +1194,38 @@
         <v>1</v>
       </c>
       <c r="S7" s="6">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2002</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
-      <c r="G8">
-        <v>10000</v>
-      </c>
-      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" s="6">
@@ -1238,7 +1238,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" s="6">
         <v>3</v>
@@ -1253,51 +1253,51 @@
         <v>1</v>
       </c>
       <c r="S8" s="6">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G9">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <v>20</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>15</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>30</v>
       </c>
       <c r="N9" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9" s="6">
         <v>3</v>
@@ -1306,57 +1306,57 @@
         <v>5</v>
       </c>
       <c r="Q9" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3002</v>
+        <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G10">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>20</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>15</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>30</v>
       </c>
       <c r="N10" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O10" s="6">
         <v>3</v>
@@ -1365,42 +1365,42 @@
         <v>5</v>
       </c>
       <c r="Q10" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11001</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>2003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
         <v>1000</v>
       </c>
-      <c r="E11">
-        <v>2000</v>
-      </c>
-      <c r="F11">
-        <v>20000</v>
-      </c>
       <c r="G11">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O11" s="6">
         <v>3</v>
@@ -1424,42 +1424,42 @@
         <v>5</v>
       </c>
       <c r="Q11" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11002</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="G12">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O12" s="6">
         <v>3</v>
@@ -1483,36 +1483,36 @@
         <v>5</v>
       </c>
       <c r="Q12" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11003</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>3001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="E13">
-        <v>6000</v>
+        <v>400</v>
       </c>
       <c r="F13">
-        <v>60000</v>
+        <v>4000</v>
       </c>
       <c r="G13">
-        <v>600000</v>
+        <v>40000</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1523,17 +1523,17 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>20</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>15</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>30</v>
       </c>
       <c r="N13" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O13" s="6">
         <v>3</v>
@@ -1553,25 +1553,25 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11004</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>3002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14">
         <v>4000</v>
       </c>
-      <c r="E14">
-        <v>8000</v>
-      </c>
-      <c r="F14">
-        <v>80000</v>
-      </c>
       <c r="G14">
-        <v>800000</v>
+        <v>40000</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1582,17 +1582,17 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <v>20</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>15</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>30</v>
       </c>
       <c r="N14" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O14" s="6">
         <v>3</v>
@@ -1611,104 +1611,426 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15">
+        <v>3003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>400</v>
+      </c>
+      <c r="F15">
+        <v>4000</v>
+      </c>
+      <c r="G15">
+        <v>40000</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>20</v>
+      </c>
+      <c r="L15" s="6">
+        <v>15</v>
+      </c>
+      <c r="M15" s="6">
+        <v>30</v>
+      </c>
+      <c r="N15" s="6">
+        <v>5</v>
+      </c>
+      <c r="O15" s="6">
+        <v>3</v>
+      </c>
+      <c r="P15" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>8</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2</v>
+      </c>
+      <c r="S15" s="6">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>400</v>
+      </c>
+      <c r="F16">
+        <v>4000</v>
+      </c>
+      <c r="G16">
+        <v>40000</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16" s="6">
+        <v>6</v>
+      </c>
+      <c r="O16" s="6">
+        <v>3</v>
+      </c>
+      <c r="P16" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>8</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2</v>
+      </c>
+      <c r="S16" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11001</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>20000</v>
+      </c>
+      <c r="G17">
+        <v>200000</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
+        <v>15</v>
+      </c>
+      <c r="M17" s="6">
+        <v>30</v>
+      </c>
+      <c r="N17" s="6">
+        <v>7</v>
+      </c>
+      <c r="O17" s="6">
+        <v>3</v>
+      </c>
+      <c r="P17" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>8</v>
+      </c>
+      <c r="R17" s="6">
+        <v>2</v>
+      </c>
+      <c r="S17" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>11002</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>4000</v>
+      </c>
+      <c r="F18">
+        <v>40000</v>
+      </c>
+      <c r="G18">
+        <v>400000</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
+        <v>15</v>
+      </c>
+      <c r="M18" s="6">
+        <v>30</v>
+      </c>
+      <c r="N18" s="6">
+        <v>8</v>
+      </c>
+      <c r="O18" s="6">
+        <v>3</v>
+      </c>
+      <c r="P18" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>8</v>
+      </c>
+      <c r="R18" s="6">
+        <v>2</v>
+      </c>
+      <c r="S18" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11003</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>3000</v>
+      </c>
+      <c r="E19">
+        <v>6000</v>
+      </c>
+      <c r="F19">
+        <v>60000</v>
+      </c>
+      <c r="G19">
+        <v>600000</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19" s="6">
+        <v>9</v>
+      </c>
+      <c r="O19" s="6">
+        <v>3</v>
+      </c>
+      <c r="P19" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>8</v>
+      </c>
+      <c r="R19" s="6">
+        <v>2</v>
+      </c>
+      <c r="S19" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11004</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>4000</v>
+      </c>
+      <c r="E20">
+        <v>8000</v>
+      </c>
+      <c r="F20">
+        <v>80000</v>
+      </c>
+      <c r="G20">
+        <v>800000</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6">
+        <v>15</v>
+      </c>
+      <c r="M20" s="6">
+        <v>30</v>
+      </c>
+      <c r="N20" s="6">
+        <v>10</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3</v>
+      </c>
+      <c r="P20" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>8</v>
+      </c>
+      <c r="R20" s="6">
+        <v>2</v>
+      </c>
+      <c r="S20" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33"/>
@@ -1746,18 +2068,17 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
+      <c r="D40"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -1845,6 +2166,7 @@
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
+      <c r="D57"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58"/>
@@ -1855,6 +2177,7 @@
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
+      <c r="D59"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60"/>
@@ -1865,6 +2188,7 @@
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
+      <c r="D61"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -1910,7 +2234,6 @@
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -1921,7 +2244,6 @@
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73"/>
@@ -1932,7 +2254,6 @@
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
-      <c r="D74"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75"/>
@@ -3209,6 +3530,39 @@
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+      <c r="B307"/>
+      <c r="C307"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+      <c r="B308"/>
+      <c r="C308"/>
+      <c r="D308"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+      <c r="B309"/>
+      <c r="C309"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+      <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311"/>
+      <c r="B311"/>
+      <c r="C311"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312"/>
+      <c r="B312"/>
+      <c r="C312"/>
+      <c r="D312"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -275,42 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100000]</t>
-  </si>
-  <si>
-    <t>[500000]</t>
-  </si>
-  <si>
-    <t>[1000000]</t>
-  </si>
-  <si>
-    <t>[5000000]</t>
-  </si>
-  <si>
-    <t>[0;100;200;400]</t>
-  </si>
-  <si>
-    <t>[0;1000;2000;4000]</t>
-  </si>
-  <si>
-    <t>[0;10000;20000;40000]</t>
-  </si>
-  <si>
-    <t>[0;20000;40000;80000]</t>
-  </si>
-  <si>
-    <t>[0;50000;100000;200000]</t>
-  </si>
-  <si>
-    <t>[0;100000;200000;400000]</t>
-  </si>
-  <si>
-    <t>[0;200000;400000;800000]</t>
-  </si>
-  <si>
-    <t>[0;500000;1000000;2000000]</t>
-  </si>
-  <si>
     <t>Rbt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,6 +490,30 @@
       <t>一个房间最多机器人数量</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;100;200;400</t>
+  </si>
+  <si>
+    <t>0;1000;2000;4000</t>
+  </si>
+  <si>
+    <t>0;10000;20000;40000</t>
+  </si>
+  <si>
+    <t>0;20000;40000;80000</t>
+  </si>
+  <si>
+    <t>0;50000;100000;200000</t>
+  </si>
+  <si>
+    <t>0;100000;200000;400000</t>
+  </si>
+  <si>
+    <t>0;200000;400000;800000</t>
+  </si>
+  <si>
+    <t>0;500000;1000000;2000000</t>
   </si>
 </sst>
 </file>
@@ -599,7 +587,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -956,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1023,7 @@
         <v>37</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>38</v>
@@ -1049,13 +1040,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>20</v>
@@ -1115,55 +1106,55 @@
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>40</v>
@@ -1209,6 +1200,7 @@
       <c r="M5" s="7">
         <v>30</v>
       </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="7">
         <v>3</v>
       </c>
@@ -1265,6 +1257,7 @@
       <c r="M6" s="7">
         <v>30</v>
       </c>
+      <c r="N6" s="8"/>
       <c r="O6" s="7">
         <v>3</v>
       </c>
@@ -1321,6 +1314,7 @@
       <c r="M7" s="7">
         <v>30</v>
       </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="7">
         <v>3</v>
       </c>
@@ -1377,6 +1371,7 @@
       <c r="M8" s="7">
         <v>30</v>
       </c>
+      <c r="N8" s="8"/>
       <c r="O8" s="7">
         <v>3</v>
       </c>
@@ -1433,6 +1428,7 @@
       <c r="M9" s="7">
         <v>30</v>
       </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="7">
         <v>3</v>
       </c>
@@ -1480,6 +1476,7 @@
       <c r="M10" s="7">
         <v>30</v>
       </c>
+      <c r="N10" s="8"/>
       <c r="O10" s="7">
         <v>3</v>
       </c>
@@ -1527,6 +1524,7 @@
       <c r="M11" s="7">
         <v>30</v>
       </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="7">
         <v>3</v>
       </c>
@@ -1574,6 +1572,7 @@
       <c r="M12" s="7">
         <v>30</v>
       </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="7">
         <v>3</v>
       </c>
@@ -1621,6 +1620,7 @@
       <c r="M13" s="7">
         <v>30</v>
       </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="7">
         <v>3</v>
       </c>
@@ -1668,6 +1668,7 @@
       <c r="M14" s="7">
         <v>30</v>
       </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="7">
         <v>3</v>
       </c>
@@ -1715,6 +1716,7 @@
       <c r="M15" s="7">
         <v>30</v>
       </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="7">
         <v>3</v>
       </c>
@@ -1760,8 +1762,8 @@
       <c r="M16" s="7">
         <v>30</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>58</v>
+      <c r="N16" s="8">
+        <v>100000</v>
       </c>
       <c r="O16" s="7">
         <v>3</v>
@@ -1810,6 +1812,7 @@
       <c r="M17" s="7">
         <v>30</v>
       </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="7">
         <v>3</v>
       </c>
@@ -1857,6 +1860,7 @@
       <c r="M18" s="7">
         <v>30</v>
       </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="7">
         <v>3</v>
       </c>
@@ -1902,8 +1906,8 @@
       <c r="M19" s="7">
         <v>30</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>59</v>
+      <c r="N19" s="8">
+        <v>500000</v>
       </c>
       <c r="O19" s="7">
         <v>3</v>
@@ -1952,6 +1956,7 @@
       <c r="M20" s="7">
         <v>30</v>
       </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="7">
         <v>3</v>
       </c>
@@ -1999,6 +2004,7 @@
       <c r="M21" s="7">
         <v>30</v>
       </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="7">
         <v>3</v>
       </c>
@@ -2044,8 +2050,8 @@
       <c r="M22" s="7">
         <v>30</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>60</v>
+      <c r="N22" s="8">
+        <v>1000000</v>
       </c>
       <c r="O22" s="7">
         <v>3</v>
@@ -2094,6 +2100,7 @@
       <c r="M23" s="7">
         <v>30</v>
       </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="7">
         <v>3</v>
       </c>
@@ -2141,6 +2148,7 @@
       <c r="M24" s="7">
         <v>30</v>
       </c>
+      <c r="N24" s="8"/>
       <c r="O24" s="7">
         <v>3</v>
       </c>
@@ -2186,8 +2194,8 @@
       <c r="M25" s="7">
         <v>30</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>60</v>
+      <c r="N25" s="8">
+        <v>1000000</v>
       </c>
       <c r="O25" s="7">
         <v>3</v>
@@ -2236,6 +2244,7 @@
       <c r="M26" s="7">
         <v>30</v>
       </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="7">
         <v>3</v>
       </c>
@@ -2281,8 +2290,8 @@
       <c r="M27" s="7">
         <v>30</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>61</v>
+      <c r="N27" s="8">
+        <v>5000000</v>
       </c>
       <c r="O27" s="7">
         <v>3</v>
@@ -2331,8 +2340,8 @@
       <c r="M28" s="7">
         <v>30</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>62</v>
+      <c r="N28" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="O28" s="7">
         <v>3</v>
@@ -2381,8 +2390,8 @@
       <c r="M29" s="7">
         <v>30</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>63</v>
+      <c r="N29" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="O29" s="7">
         <v>3</v>
@@ -2431,8 +2440,8 @@
       <c r="M30" s="7">
         <v>30</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>64</v>
+      <c r="N30" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="O30" s="7">
         <v>3</v>
@@ -2481,8 +2490,8 @@
       <c r="M31" s="7">
         <v>30</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>65</v>
+      <c r="N31" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="O31" s="7">
         <v>3</v>
@@ -2531,8 +2540,8 @@
       <c r="M32" s="7">
         <v>30</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>66</v>
+      <c r="N32" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -2581,8 +2590,8 @@
       <c r="M33" s="7">
         <v>30</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>67</v>
+      <c r="N33" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="O33" s="7">
         <v>3</v>
@@ -2631,8 +2640,8 @@
       <c r="M34" s="7">
         <v>30</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>68</v>
+      <c r="N34" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="O34" s="7">
         <v>3</v>
@@ -2681,8 +2690,8 @@
       <c r="M35" s="7">
         <v>30</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>69</v>
+      <c r="N35" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="O35" s="7">
         <v>3</v>
@@ -2731,6 +2740,7 @@
       <c r="M36" s="7">
         <v>30</v>
       </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="7">
         <v>2</v>
       </c>
@@ -2778,6 +2788,7 @@
       <c r="M37" s="7">
         <v>30</v>
       </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="7">
         <v>2</v>
       </c>
@@ -2825,6 +2836,7 @@
       <c r="M38" s="7">
         <v>30</v>
       </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="7">
         <v>2</v>
       </c>
@@ -2872,6 +2884,7 @@
       <c r="M39" s="7">
         <v>30</v>
       </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="7">
         <v>3</v>
       </c>
@@ -2919,6 +2932,7 @@
       <c r="M40" s="7">
         <v>30</v>
       </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="7">
         <v>3</v>
       </c>
@@ -2966,6 +2980,7 @@
       <c r="M41" s="7">
         <v>30</v>
       </c>
+      <c r="N41" s="8"/>
       <c r="O41" s="7">
         <v>3</v>
       </c>
@@ -3013,6 +3028,7 @@
       <c r="M42" s="7">
         <v>30</v>
       </c>
+      <c r="N42" s="8"/>
       <c r="O42" s="7">
         <v>3</v>
       </c>
@@ -3060,6 +3076,7 @@
       <c r="M43" s="7">
         <v>30</v>
       </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="7">
         <v>3</v>
       </c>
@@ -3107,6 +3124,7 @@
       <c r="M44" s="7">
         <v>30</v>
       </c>
+      <c r="N44" s="8"/>
       <c r="O44" s="7">
         <v>3</v>
       </c>
@@ -3154,6 +3172,7 @@
       <c r="M45" s="7">
         <v>30</v>
       </c>
+      <c r="N45" s="8"/>
       <c r="O45" s="7">
         <v>3</v>
       </c>
@@ -3201,6 +3220,7 @@
       <c r="M46" s="7">
         <v>30</v>
       </c>
+      <c r="N46" s="8"/>
       <c r="O46" s="7">
         <v>3</v>
       </c>
@@ -3248,6 +3268,7 @@
       <c r="M47" s="7">
         <v>30</v>
       </c>
+      <c r="N47" s="8"/>
       <c r="O47" s="7">
         <v>3</v>
       </c>
@@ -3295,6 +3316,7 @@
       <c r="M48" s="7">
         <v>30</v>
       </c>
+      <c r="N48" s="8"/>
       <c r="O48" s="7">
         <v>3</v>
       </c>
@@ -3342,6 +3364,7 @@
       <c r="M49" s="7">
         <v>30</v>
       </c>
+      <c r="N49" s="8"/>
       <c r="O49" s="7">
         <v>3</v>
       </c>
@@ -3389,6 +3412,7 @@
       <c r="M50" s="7">
         <v>30</v>
       </c>
+      <c r="N50" s="8"/>
       <c r="O50" s="7">
         <v>3</v>
       </c>
@@ -3436,6 +3460,7 @@
       <c r="M51" s="7">
         <v>30</v>
       </c>
+      <c r="N51" s="8"/>
       <c r="O51" s="7">
         <v>3</v>
       </c>
@@ -3481,8 +3506,8 @@
       <c r="M52" s="7">
         <v>30</v>
       </c>
-      <c r="N52" s="5" t="s">
-        <v>58</v>
+      <c r="N52" s="8">
+        <v>100000</v>
       </c>
       <c r="O52" s="7">
         <v>3</v>
@@ -3531,6 +3556,7 @@
       <c r="M53" s="7">
         <v>30</v>
       </c>
+      <c r="N53" s="8"/>
       <c r="O53" s="7">
         <v>3</v>
       </c>
@@ -3578,6 +3604,7 @@
       <c r="M54" s="7">
         <v>30</v>
       </c>
+      <c r="N54" s="8"/>
       <c r="O54" s="7">
         <v>3</v>
       </c>
@@ -3623,8 +3650,8 @@
       <c r="M55" s="7">
         <v>30</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>59</v>
+      <c r="N55" s="8">
+        <v>500000</v>
       </c>
       <c r="O55" s="7">
         <v>3</v>
@@ -3673,6 +3700,7 @@
       <c r="M56" s="7">
         <v>30</v>
       </c>
+      <c r="N56" s="8"/>
       <c r="O56" s="7">
         <v>3</v>
       </c>
@@ -3720,6 +3748,7 @@
       <c r="M57" s="7">
         <v>30</v>
       </c>
+      <c r="N57" s="8"/>
       <c r="O57" s="7">
         <v>3</v>
       </c>
@@ -3765,8 +3794,8 @@
       <c r="M58" s="7">
         <v>30</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>60</v>
+      <c r="N58" s="8">
+        <v>1000000</v>
       </c>
       <c r="O58" s="7">
         <v>3</v>
@@ -3815,6 +3844,7 @@
       <c r="M59" s="7">
         <v>30</v>
       </c>
+      <c r="N59" s="8"/>
       <c r="O59" s="7">
         <v>3</v>
       </c>
@@ -3862,6 +3892,7 @@
       <c r="M60" s="7">
         <v>30</v>
       </c>
+      <c r="N60" s="8"/>
       <c r="O60" s="7">
         <v>3</v>
       </c>
@@ -3907,8 +3938,8 @@
       <c r="M61" s="7">
         <v>30</v>
       </c>
-      <c r="N61" s="5" t="s">
-        <v>60</v>
+      <c r="N61" s="8">
+        <v>1000000</v>
       </c>
       <c r="O61" s="7">
         <v>3</v>
@@ -3957,6 +3988,7 @@
       <c r="M62" s="7">
         <v>30</v>
       </c>
+      <c r="N62" s="8"/>
       <c r="O62" s="7">
         <v>3</v>
       </c>
@@ -4002,8 +4034,8 @@
       <c r="M63" s="7">
         <v>30</v>
       </c>
-      <c r="N63" s="5" t="s">
-        <v>61</v>
+      <c r="N63" s="8">
+        <v>5000000</v>
       </c>
       <c r="O63" s="7">
         <v>3</v>
@@ -4052,8 +4084,8 @@
       <c r="M64" s="7">
         <v>30</v>
       </c>
-      <c r="N64" s="5" t="s">
-        <v>62</v>
+      <c r="N64" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="O64" s="7">
         <v>3</v>
@@ -4102,8 +4134,8 @@
       <c r="M65" s="7">
         <v>30</v>
       </c>
-      <c r="N65" s="5" t="s">
-        <v>63</v>
+      <c r="N65" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="O65" s="7">
         <v>3</v>
@@ -4152,8 +4184,8 @@
       <c r="M66" s="7">
         <v>30</v>
       </c>
-      <c r="N66" s="5" t="s">
-        <v>64</v>
+      <c r="N66" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="O66" s="7">
         <v>3</v>
@@ -4202,8 +4234,8 @@
       <c r="M67" s="7">
         <v>30</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>65</v>
+      <c r="N67" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="O67" s="7">
         <v>3</v>
@@ -4252,8 +4284,8 @@
       <c r="M68" s="7">
         <v>30</v>
       </c>
-      <c r="N68" s="5" t="s">
-        <v>66</v>
+      <c r="N68" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="O68" s="7">
         <v>3</v>
@@ -4302,8 +4334,8 @@
       <c r="M69" s="7">
         <v>30</v>
       </c>
-      <c r="N69" s="5" t="s">
-        <v>67</v>
+      <c r="N69" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="O69" s="7">
         <v>3</v>
@@ -4352,8 +4384,8 @@
       <c r="M70" s="7">
         <v>30</v>
       </c>
-      <c r="N70" s="5" t="s">
-        <v>68</v>
+      <c r="N70" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="O70" s="7">
         <v>3</v>
@@ -4402,8 +4434,8 @@
       <c r="M71" s="7">
         <v>30</v>
       </c>
-      <c r="N71" s="5" t="s">
-        <v>69</v>
+      <c r="N71" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="O71" s="7">
         <v>3</v>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
   <si>
     <t>Id</t>
@@ -267,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSpliter: ";"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +507,18 @@
   </si>
   <si>
     <t>0;500000;1000000;2000000</t>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,120 +980,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1098,66 +1103,66 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2341,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O28" s="7">
         <v>3</v>
@@ -2391,7 +2396,7 @@
         <v>30</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O29" s="7">
         <v>3</v>
@@ -2441,7 +2446,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O30" s="7">
         <v>3</v>
@@ -2491,7 +2496,7 @@
         <v>30</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O31" s="7">
         <v>3</v>
@@ -2541,7 +2546,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -2591,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O33" s="7">
         <v>3</v>
@@ -2641,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O34" s="7">
         <v>3</v>
@@ -2691,7 +2696,7 @@
         <v>30</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O35" s="7">
         <v>3</v>
@@ -4085,7 +4090,7 @@
         <v>30</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O64" s="7">
         <v>3</v>
@@ -4135,7 +4140,7 @@
         <v>30</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O65" s="7">
         <v>3</v>
@@ -4185,7 +4190,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O66" s="7">
         <v>3</v>
@@ -4235,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O67" s="7">
         <v>3</v>
@@ -4285,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O68" s="7">
         <v>3</v>
@@ -4335,7 +4340,7 @@
         <v>30</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O69" s="7">
         <v>3</v>
@@ -4385,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O70" s="7">
         <v>3</v>
@@ -4435,7 +4440,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O71" s="7">
         <v>3</v>
@@ -5794,59 +5799,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5872,10 +5877,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5883,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5891,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5899,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5907,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5915,7 +5920,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5923,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5931,7 +5936,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5939,7 +5944,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5947,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5955,7 +5960,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5963,7 +5968,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5971,7 +5976,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" s="7">
         <v>5</v>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="7">
         <v>5</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="7">
         <v>5</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="7">
         <v>5</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="7">
         <v>5</v>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="7">
         <v>5</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" s="7">
         <v>5</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" s="7">
         <v>5</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7">
         <v>5</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="7">
         <v>5</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" s="7">
         <v>5</v>
@@ -1771,7 +1771,7 @@
         <v>100000</v>
       </c>
       <c r="O16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="7">
         <v>5</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" s="7">
         <v>5</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18" s="7">
         <v>5</v>
@@ -1915,7 +1915,7 @@
         <v>500000</v>
       </c>
       <c r="O19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" s="7">
         <v>5</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" s="7">
         <v>5</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" s="7">
         <v>5</v>
@@ -2059,7 +2059,7 @@
         <v>1000000</v>
       </c>
       <c r="O22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" s="7">
         <v>5</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" s="7">
         <v>5</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="7">
         <v>5</v>
@@ -2203,7 +2203,7 @@
         <v>1000000</v>
       </c>
       <c r="O25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" s="7">
         <v>5</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" s="7">
         <v>5</v>
@@ -2299,7 +2299,7 @@
         <v>5000000</v>
       </c>
       <c r="O27" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" s="7">
         <v>5</v>
@@ -2349,7 +2349,7 @@
         <v>74</v>
       </c>
       <c r="O28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" s="7">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         <v>75</v>
       </c>
       <c r="O29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29" s="7">
         <v>5</v>
@@ -2449,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="O30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" s="7">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>77</v>
       </c>
       <c r="O31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31" s="7">
         <v>5</v>
@@ -2549,7 +2549,7 @@
         <v>78</v>
       </c>
       <c r="O32" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" s="7">
         <v>5</v>
@@ -2599,7 +2599,7 @@
         <v>79</v>
       </c>
       <c r="O33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" s="7">
         <v>5</v>
@@ -2649,7 +2649,7 @@
         <v>80</v>
       </c>
       <c r="O34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" s="7">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>81</v>
       </c>
       <c r="O35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35" s="7">
         <v>5</v>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P39" s="7">
         <v>5</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P40" s="7">
         <v>5</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41" s="7">
         <v>5</v>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" s="7">
         <v>5</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P43" s="7">
         <v>5</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44" s="7">
         <v>5</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45" s="7">
         <v>5</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46" s="7">
         <v>5</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" s="7">
         <v>5</v>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P48" s="7">
         <v>5</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P49" s="7">
         <v>5</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50" s="7">
         <v>5</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51" s="7">
         <v>5</v>
@@ -3515,7 +3515,7 @@
         <v>100000</v>
       </c>
       <c r="O52" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P52" s="7">
         <v>5</v>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P53" s="7">
         <v>5</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P54" s="7">
         <v>5</v>
@@ -3659,7 +3659,7 @@
         <v>500000</v>
       </c>
       <c r="O55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P55" s="7">
         <v>5</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P56" s="7">
         <v>5</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P57" s="7">
         <v>5</v>
@@ -3803,7 +3803,7 @@
         <v>1000000</v>
       </c>
       <c r="O58" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P58" s="7">
         <v>5</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P59" s="7">
         <v>5</v>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60" s="7">
         <v>5</v>
@@ -3947,7 +3947,7 @@
         <v>1000000</v>
       </c>
       <c r="O61" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P61" s="7">
         <v>5</v>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P62" s="7">
         <v>5</v>
@@ -4043,7 +4043,7 @@
         <v>5000000</v>
       </c>
       <c r="O63" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P63" s="7">
         <v>5</v>
@@ -4093,7 +4093,7 @@
         <v>74</v>
       </c>
       <c r="O64" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64" s="7">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         <v>75</v>
       </c>
       <c r="O65" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P65" s="7">
         <v>5</v>
@@ -4193,7 +4193,7 @@
         <v>76</v>
       </c>
       <c r="O66" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P66" s="7">
         <v>5</v>
@@ -4243,7 +4243,7 @@
         <v>77</v>
       </c>
       <c r="O67" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P67" s="7">
         <v>5</v>
@@ -4293,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="O68" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P68" s="7">
         <v>5</v>
@@ -4343,7 +4343,7 @@
         <v>79</v>
       </c>
       <c r="O69" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P69" s="7">
         <v>5</v>
@@ -4393,7 +4393,7 @@
         <v>80</v>
       </c>
       <c r="O70" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P70" s="7">
         <v>5</v>
@@ -4443,7 +4443,7 @@
         <v>81</v>
       </c>
       <c r="O71" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P71" s="7">
         <v>5</v>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -950,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S312"/>
+  <dimension ref="A1:S314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" s="7">
         <v>1</v>
@@ -1281,31 +1281,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>2001</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -1327,51 +1327,51 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>2002</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -1384,51 +1384,51 @@
         <v>5</v>
       </c>
       <c r="Q8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="7">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
         <v>9</v>
       </c>
       <c r="J9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -1440,31 +1440,40 @@
       <c r="P9" s="7">
         <v>5</v>
       </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>2</v>
+      </c>
+      <c r="S9" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="7">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="7">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
         <v>9</v>
@@ -1488,31 +1497,40 @@
       <c r="P10" s="7">
         <v>5</v>
       </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2</v>
+      </c>
+      <c r="S10" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="H11" s="7">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
         <v>9</v>
@@ -1539,28 +1557,28 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="B12" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E12" s="7">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="F12" s="7">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="H12" s="7">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="I12" s="7">
         <v>9</v>
@@ -1587,28 +1605,28 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>3002</v>
+        <v>2005</v>
       </c>
       <c r="B13" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E13" s="7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="7">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="7">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="H13" s="7">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="I13" s="7">
         <v>9</v>
@@ -1635,28 +1653,28 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B14" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="G14" s="7">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="H14" s="7">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I14" s="7">
         <v>9</v>
@@ -1683,28 +1701,28 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B15" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G15" s="7">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="H15" s="7">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="I15" s="7">
         <v>9</v>
@@ -1731,32 +1749,34 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B16" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="7">
         <v>10000</v>
       </c>
-      <c r="E16" s="7">
-        <v>20000</v>
-      </c>
       <c r="F16" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>200000</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2000000</v>
+      </c>
       <c r="H16" s="7">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="I16" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="7">
         <v>13</v>
@@ -1767,9 +1787,7 @@
       <c r="M16" s="7">
         <v>30</v>
       </c>
-      <c r="N16" s="8">
-        <v>100000</v>
-      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="7">
         <v>2</v>
       </c>
@@ -1779,10 +1797,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B17" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -1806,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="J17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="7">
         <v>13</v>
@@ -1827,34 +1845,32 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B18" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="7">
         <v>20000</v>
       </c>
-      <c r="E18" s="7">
-        <v>40000</v>
-      </c>
       <c r="F18" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G18" s="7">
-        <v>8000000</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="I18" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="7">
         <v>13</v>
@@ -1865,7 +1881,9 @@
       <c r="M18" s="7">
         <v>30</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8">
+        <v>100000</v>
+      </c>
       <c r="O18" s="7">
         <v>2</v>
       </c>
@@ -1875,32 +1893,34 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B19" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="7">
         <v>20000</v>
       </c>
-      <c r="E19" s="7">
-        <v>40000</v>
-      </c>
       <c r="F19" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>400000</v>
+      </c>
+      <c r="G19" s="7">
+        <v>4000000</v>
+      </c>
       <c r="H19" s="7">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="I19" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J19" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19" s="7">
         <v>13</v>
@@ -1911,9 +1931,7 @@
       <c r="M19" s="7">
         <v>30</v>
       </c>
-      <c r="N19" s="8">
-        <v>500000</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="7">
         <v>2</v>
       </c>
@@ -1923,10 +1941,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B20" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1950,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" s="7">
         <v>13</v>
@@ -1971,34 +1989,32 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B21" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
       </c>
       <c r="D21" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="7">
         <v>40000</v>
       </c>
-      <c r="E21" s="7">
-        <v>80000</v>
-      </c>
       <c r="F21" s="7">
-        <v>1600000</v>
-      </c>
-      <c r="G21" s="7">
-        <v>16000000</v>
-      </c>
+        <v>8000000</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="7">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="I21" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="7">
         <v>13</v>
@@ -2009,7 +2025,9 @@
       <c r="M21" s="7">
         <v>30</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="8">
+        <v>500000</v>
+      </c>
       <c r="O21" s="7">
         <v>2</v>
       </c>
@@ -2019,32 +2037,34 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B22" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
       </c>
       <c r="D22" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="7">
         <v>40000</v>
       </c>
-      <c r="E22" s="7">
-        <v>80000</v>
-      </c>
       <c r="F22" s="7">
-        <v>16000000</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>800000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8000000</v>
+      </c>
       <c r="H22" s="7">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="I22" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J22" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K22" s="7">
         <v>13</v>
@@ -2055,9 +2075,7 @@
       <c r="M22" s="7">
         <v>30</v>
       </c>
-      <c r="N22" s="8">
-        <v>1000000</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="7">
         <v>2</v>
       </c>
@@ -2067,10 +2085,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B23" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -2094,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K23" s="7">
         <v>13</v>
@@ -2115,34 +2133,32 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B24" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="E24" s="7">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="F24" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G24" s="7">
-        <v>40000000</v>
-      </c>
+        <v>16000000</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="7">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="I24" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="7">
         <v>13</v>
@@ -2153,7 +2169,9 @@
       <c r="M24" s="7">
         <v>30</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="8">
+        <v>1000000</v>
+      </c>
       <c r="O24" s="7">
         <v>2</v>
       </c>
@@ -2163,32 +2181,34 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B25" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="E25" s="7">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="F25" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>1600000</v>
+      </c>
+      <c r="G25" s="7">
+        <v>16000000</v>
+      </c>
       <c r="H25" s="7">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="I25" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J25" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K25" s="7">
         <v>13</v>
@@ -2199,9 +2219,7 @@
       <c r="M25" s="7">
         <v>30</v>
       </c>
-      <c r="N25" s="8">
-        <v>1000000</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="7">
         <v>2</v>
       </c>
@@ -2211,28 +2229,28 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B26" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
       </c>
       <c r="D26" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="7">
         <v>200000</v>
       </c>
-      <c r="E26" s="7">
-        <v>400000</v>
-      </c>
       <c r="F26" s="7">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="G26" s="7">
-        <v>80000000</v>
+        <v>40000000</v>
       </c>
       <c r="H26" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="7">
         <v>9</v>
@@ -2259,26 +2277,26 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="B27" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="7">
         <v>200000</v>
       </c>
-      <c r="E27" s="7">
-        <v>400000</v>
-      </c>
       <c r="F27" s="7">
-        <v>80000000</v>
+        <v>40000000</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="7">
         <v>5</v>
@@ -2296,7 +2314,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="8">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="O27" s="7">
         <v>2</v>
@@ -2307,47 +2325,45 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>11001</v>
+        <v>3015</v>
       </c>
       <c r="B28" s="7">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>75</v>
+        <v>200000</v>
       </c>
       <c r="E28" s="7">
-        <v>150</v>
+        <v>400000</v>
       </c>
       <c r="F28" s="7">
-        <v>2000</v>
+        <v>8000000</v>
       </c>
       <c r="G28" s="7">
-        <v>20000000</v>
+        <v>80000000</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I28" s="7">
         <v>9</v>
       </c>
       <c r="J28" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="7">
         <v>2</v>
       </c>
@@ -2357,46 +2373,44 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>11002</v>
+        <v>3016</v>
       </c>
       <c r="B29" s="7">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="E29" s="7">
-        <v>2000</v>
+        <v>400000</v>
       </c>
       <c r="F29" s="7">
-        <v>20000</v>
-      </c>
-      <c r="G29" s="7">
-        <v>200000000</v>
-      </c>
+        <v>80000000</v>
+      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I29" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J29" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L29" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>75</v>
+      <c r="N29" s="8">
+        <v>5000000</v>
       </c>
       <c r="O29" s="7">
         <v>2</v>
@@ -2407,25 +2421,25 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="B30" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>10000</v>
+        <v>75</v>
       </c>
       <c r="E30" s="7">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="G30" s="7">
-        <v>400000000</v>
+        <v>20000000</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2446,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O30" s="7">
         <v>2</v>
@@ -2457,25 +2471,25 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B31" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="7">
         <v>11</v>
       </c>
       <c r="D31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="7">
         <v>20000</v>
       </c>
-      <c r="E31" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F31" s="7">
-        <v>80000</v>
-      </c>
       <c r="G31" s="7">
-        <v>800000000</v>
+        <v>200000000</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2496,7 +2510,7 @@
         <v>30</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O31" s="7">
         <v>2</v>
@@ -2507,25 +2521,25 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="B32" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="7">
         <v>11</v>
       </c>
       <c r="D32" s="7">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E32" s="7">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F32" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="7">
-        <v>1000000000</v>
+        <v>400000000</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2546,7 +2560,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O32" s="7">
         <v>2</v>
@@ -2557,25 +2571,25 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>11006</v>
+        <v>11004</v>
       </c>
       <c r="B33" s="7">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="7">
         <v>11</v>
       </c>
       <c r="D33" s="7">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E33" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="F33" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G33" s="7">
-        <v>1000000000</v>
+        <v>800000000</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2596,7 +2610,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O33" s="7">
         <v>2</v>
@@ -2607,25 +2621,25 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>11007</v>
+        <v>11005</v>
       </c>
       <c r="B34" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="7">
         <v>11</v>
       </c>
       <c r="D34" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F34" s="7">
         <v>200000</v>
       </c>
-      <c r="E34" s="7">
-        <v>400000</v>
-      </c>
-      <c r="F34" s="7">
-        <v>800000</v>
-      </c>
       <c r="G34" s="7">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2646,7 +2660,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O34" s="7">
         <v>2</v>
@@ -2657,25 +2671,25 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="B35" s="7">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="7">
         <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="E35" s="7">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="F35" s="7">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="G35" s="7">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2696,7 +2710,7 @@
         <v>30</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O35" s="7">
         <v>2</v>
@@ -2707,45 +2721,47 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>21001</v>
+        <v>11007</v>
       </c>
       <c r="B36" s="7">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="C36" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E36" s="7">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F36" s="7">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="G36" s="7">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J36" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K36" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L36" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
       </c>
-      <c r="N36" s="8"/>
+      <c r="N36" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="O36" s="7">
         <v>2</v>
       </c>
@@ -2755,25 +2771,25 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>21002</v>
+        <v>11008</v>
       </c>
       <c r="B37" s="7">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F37" s="7">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G37" s="7">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2782,18 +2798,20 @@
         <v>9</v>
       </c>
       <c r="J37" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L37" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
       </c>
-      <c r="N37" s="8"/>
+      <c r="N37" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="O37" s="7">
         <v>2</v>
       </c>
@@ -2803,13 +2821,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>22001</v>
+        <v>21001</v>
       </c>
       <c r="B38" s="7">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C38" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="7">
         <v>0</v>
@@ -2851,40 +2869,40 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>31001</v>
+        <v>21002</v>
       </c>
       <c r="B39" s="7">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C39" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D39" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E39" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G39" s="7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
       </c>
       <c r="K39" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
@@ -2899,25 +2917,25 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>32002</v>
+        <v>22001</v>
       </c>
       <c r="B40" s="7">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="C40" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D40" s="7">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G40" s="7">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -2929,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L40" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M40" s="7">
         <v>30</v>
@@ -2947,19 +2965,19 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>4001</v>
+        <v>31001</v>
       </c>
       <c r="B41" s="7">
-        <v>1001</v>
+        <v>301</v>
       </c>
       <c r="C41" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D41" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E41" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7">
         <v>200</v>
@@ -2968,10 +2986,10 @@
         <v>2000</v>
       </c>
       <c r="H41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" s="7">
         <v>0</v>
@@ -2995,31 +3013,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>4002</v>
+        <v>32002</v>
       </c>
       <c r="B42" s="7">
-        <v>1002</v>
+        <v>302</v>
       </c>
       <c r="C42" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D42" s="7">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="E42" s="7">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="F42" s="7">
-        <v>400</v>
+        <v>200000</v>
       </c>
       <c r="G42" s="7">
-        <v>4000</v>
+        <v>2000000</v>
       </c>
       <c r="H42" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J42" s="7">
         <v>0</v>
@@ -3043,31 +3061,31 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="B43" s="7">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C43" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E43" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G43" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H43" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
@@ -3091,40 +3109,40 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="B44" s="7">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C44" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E44" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G44" s="7">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H44" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I44" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L44" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M44" s="7">
         <v>30</v>
@@ -3139,40 +3157,40 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B45" s="7">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C45" s="7">
         <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E45" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F45" s="7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="7">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I45" s="7">
         <v>9</v>
       </c>
       <c r="J45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L45" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M45" s="7">
         <v>30</v>
@@ -3187,28 +3205,28 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B46" s="7">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C46" s="7">
         <v>5</v>
       </c>
       <c r="D46" s="7">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E46" s="7">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="F46" s="7">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="7">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="H46" s="7">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I46" s="7">
         <v>9</v>
@@ -3235,28 +3253,28 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B47" s="7">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C47" s="7">
         <v>5</v>
       </c>
       <c r="D47" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E47" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F47" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="H47" s="7">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I47" s="7">
         <v>9</v>
@@ -3283,28 +3301,28 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>6001</v>
+        <v>5004</v>
       </c>
       <c r="B48" s="7">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C48" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E48" s="7">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="F48" s="7">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G48" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="H48" s="7">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="I48" s="7">
         <v>9</v>
@@ -3331,28 +3349,28 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>6002</v>
+        <v>5005</v>
       </c>
       <c r="B49" s="7">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C49" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="7">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E49" s="7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="7">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G49" s="7">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="H49" s="7">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="I49" s="7">
         <v>9</v>
@@ -3379,28 +3397,28 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B50" s="7">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C50" s="7">
         <v>6</v>
       </c>
       <c r="D50" s="7">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F50" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="7">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="H50" s="7">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I50" s="7">
         <v>9</v>
@@ -3427,28 +3445,28 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B51" s="7">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C51" s="7">
         <v>6</v>
       </c>
       <c r="D51" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E51" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="F51" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G51" s="7">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="H51" s="7">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="I51" s="7">
         <v>9</v>
@@ -3475,32 +3493,34 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B52" s="7">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C52" s="7">
         <v>6</v>
       </c>
       <c r="D52" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="7">
         <v>10000</v>
       </c>
-      <c r="E52" s="7">
-        <v>20000</v>
-      </c>
       <c r="F52" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>200000</v>
+      </c>
+      <c r="G52" s="7">
+        <v>2000000</v>
+      </c>
       <c r="H52" s="7">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="7">
         <v>13</v>
@@ -3511,9 +3531,7 @@
       <c r="M52" s="7">
         <v>30</v>
       </c>
-      <c r="N52" s="8">
-        <v>100000</v>
-      </c>
+      <c r="N52" s="8"/>
       <c r="O52" s="7">
         <v>2</v>
       </c>
@@ -3523,10 +3541,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B53" s="7">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C53" s="7">
         <v>6</v>
@@ -3550,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="J53" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K53" s="7">
         <v>13</v>
@@ -3571,34 +3589,32 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="B54" s="7">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C54" s="7">
         <v>6</v>
       </c>
       <c r="D54" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="7">
         <v>20000</v>
       </c>
-      <c r="E54" s="7">
-        <v>40000</v>
-      </c>
       <c r="F54" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G54" s="7">
-        <v>8000000</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="I54" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="7">
         <v>13</v>
@@ -3609,7 +3625,9 @@
       <c r="M54" s="7">
         <v>30</v>
       </c>
-      <c r="N54" s="8"/>
+      <c r="N54" s="8">
+        <v>100000</v>
+      </c>
       <c r="O54" s="7">
         <v>2</v>
       </c>
@@ -3619,32 +3637,34 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="B55" s="7">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C55" s="7">
         <v>6</v>
       </c>
       <c r="D55" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E55" s="7">
         <v>20000</v>
       </c>
-      <c r="E55" s="7">
-        <v>40000</v>
-      </c>
       <c r="F55" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G55" s="7"/>
+        <v>400000</v>
+      </c>
+      <c r="G55" s="7">
+        <v>4000000</v>
+      </c>
       <c r="H55" s="7">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="I55" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J55" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K55" s="7">
         <v>13</v>
@@ -3655,9 +3675,7 @@
       <c r="M55" s="7">
         <v>30</v>
       </c>
-      <c r="N55" s="8">
-        <v>500000</v>
-      </c>
+      <c r="N55" s="8"/>
       <c r="O55" s="7">
         <v>2</v>
       </c>
@@ -3667,10 +3685,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="B56" s="7">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C56" s="7">
         <v>6</v>
@@ -3694,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="J56" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56" s="7">
         <v>13</v>
@@ -3715,34 +3733,32 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="B57" s="7">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C57" s="7">
         <v>6</v>
       </c>
       <c r="D57" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E57" s="7">
         <v>40000</v>
       </c>
-      <c r="E57" s="7">
-        <v>80000</v>
-      </c>
       <c r="F57" s="7">
-        <v>1600000</v>
-      </c>
-      <c r="G57" s="7">
-        <v>16000000</v>
-      </c>
+        <v>8000000</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="I57" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="7">
         <v>13</v>
@@ -3753,7 +3769,9 @@
       <c r="M57" s="7">
         <v>30</v>
       </c>
-      <c r="N57" s="8"/>
+      <c r="N57" s="8">
+        <v>500000</v>
+      </c>
       <c r="O57" s="7">
         <v>2</v>
       </c>
@@ -3763,32 +3781,34 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="B58" s="7">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C58" s="7">
         <v>6</v>
       </c>
       <c r="D58" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="7">
         <v>40000</v>
       </c>
-      <c r="E58" s="7">
-        <v>80000</v>
-      </c>
       <c r="F58" s="7">
-        <v>16000000</v>
-      </c>
-      <c r="G58" s="7"/>
+        <v>800000</v>
+      </c>
+      <c r="G58" s="7">
+        <v>8000000</v>
+      </c>
       <c r="H58" s="7">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="I58" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J58" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K58" s="7">
         <v>13</v>
@@ -3799,9 +3819,7 @@
       <c r="M58" s="7">
         <v>30</v>
       </c>
-      <c r="N58" s="8">
-        <v>1000000</v>
-      </c>
+      <c r="N58" s="8"/>
       <c r="O58" s="7">
         <v>2</v>
       </c>
@@ -3811,10 +3829,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="B59" s="7">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C59" s="7">
         <v>6</v>
@@ -3838,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="J59" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K59" s="7">
         <v>13</v>
@@ -3859,34 +3877,32 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <v>6013</v>
+        <v>6011</v>
       </c>
       <c r="B60" s="7">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C60" s="7">
         <v>6</v>
       </c>
       <c r="D60" s="7">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="E60" s="7">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="F60" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G60" s="7">
-        <v>40000000</v>
-      </c>
+        <v>16000000</v>
+      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="7">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="I60" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="7">
         <v>13</v>
@@ -3897,7 +3913,9 @@
       <c r="M60" s="7">
         <v>30</v>
       </c>
-      <c r="N60" s="8"/>
+      <c r="N60" s="8">
+        <v>1000000</v>
+      </c>
       <c r="O60" s="7">
         <v>2</v>
       </c>
@@ -3907,32 +3925,34 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>6014</v>
+        <v>6012</v>
       </c>
       <c r="B61" s="7">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C61" s="7">
         <v>6</v>
       </c>
       <c r="D61" s="7">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="E61" s="7">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="F61" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="G61" s="7"/>
+        <v>1600000</v>
+      </c>
+      <c r="G61" s="7">
+        <v>16000000</v>
+      </c>
       <c r="H61" s="7">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="I61" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J61" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K61" s="7">
         <v>13</v>
@@ -3943,9 +3963,7 @@
       <c r="M61" s="7">
         <v>30</v>
       </c>
-      <c r="N61" s="8">
-        <v>1000000</v>
-      </c>
+      <c r="N61" s="8"/>
       <c r="O61" s="7">
         <v>2</v>
       </c>
@@ -3955,28 +3973,28 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="B62" s="7">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C62" s="7">
         <v>6</v>
       </c>
       <c r="D62" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="7">
         <v>200000</v>
       </c>
-      <c r="E62" s="7">
-        <v>400000</v>
-      </c>
       <c r="F62" s="7">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="G62" s="7">
-        <v>80000000</v>
+        <v>40000000</v>
       </c>
       <c r="H62" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I62" s="7">
         <v>9</v>
@@ -4003,26 +4021,26 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>6016</v>
+        <v>6014</v>
       </c>
       <c r="B63" s="7">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C63" s="7">
         <v>6</v>
       </c>
       <c r="D63" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E63" s="7">
         <v>200000</v>
       </c>
-      <c r="E63" s="7">
-        <v>400000</v>
-      </c>
       <c r="F63" s="7">
-        <v>80000000</v>
+        <v>40000000</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I63" s="7">
         <v>5</v>
@@ -4040,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="N63" s="8">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="O63" s="7">
         <v>2</v>
@@ -4051,47 +4069,45 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <v>12001</v>
+        <v>6015</v>
       </c>
       <c r="B64" s="7">
-        <v>1121</v>
+        <v>1022</v>
       </c>
       <c r="C64" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D64" s="7">
-        <v>75</v>
+        <v>200000</v>
       </c>
       <c r="E64" s="7">
-        <v>150</v>
+        <v>400000</v>
       </c>
       <c r="F64" s="7">
-        <v>2000</v>
+        <v>8000000</v>
       </c>
       <c r="G64" s="7">
-        <v>20000000</v>
+        <v>80000000</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I64" s="7">
         <v>9</v>
       </c>
       <c r="J64" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L64" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M64" s="7">
         <v>30</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="N64" s="8"/>
       <c r="O64" s="7">
         <v>2</v>
       </c>
@@ -4101,46 +4117,44 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>12002</v>
+        <v>6016</v>
       </c>
       <c r="B65" s="7">
-        <v>1122</v>
+        <v>1023</v>
       </c>
       <c r="C65" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D65" s="7">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="E65" s="7">
-        <v>2000</v>
+        <v>400000</v>
       </c>
       <c r="F65" s="7">
-        <v>20000</v>
-      </c>
-      <c r="G65" s="7">
-        <v>200000000</v>
-      </c>
+        <v>80000000</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I65" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J65" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K65" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L65" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M65" s="7">
         <v>30</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>75</v>
+      <c r="N65" s="8">
+        <v>5000000</v>
       </c>
       <c r="O65" s="7">
         <v>2</v>
@@ -4151,25 +4165,25 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="B66" s="7">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C66" s="7">
         <v>12</v>
       </c>
       <c r="D66" s="7">
-        <v>10000</v>
+        <v>75</v>
       </c>
       <c r="E66" s="7">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="F66" s="7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="7">
-        <v>400000000</v>
+        <v>20000000</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4190,7 +4204,7 @@
         <v>30</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O66" s="7">
         <v>2</v>
@@ -4201,25 +4215,25 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>12004</v>
+        <v>12002</v>
       </c>
       <c r="B67" s="7">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C67" s="7">
         <v>12</v>
       </c>
       <c r="D67" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F67" s="7">
         <v>20000</v>
       </c>
-      <c r="E67" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F67" s="7">
-        <v>80000</v>
-      </c>
       <c r="G67" s="7">
-        <v>800000000</v>
+        <v>200000000</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4240,7 +4254,7 @@
         <v>30</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O67" s="7">
         <v>2</v>
@@ -4251,25 +4265,25 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="B68" s="7">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C68" s="7">
         <v>12</v>
       </c>
       <c r="D68" s="7">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E68" s="7">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F68" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="7">
-        <v>1000000000</v>
+        <v>400000000</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4290,7 +4304,7 @@
         <v>30</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O68" s="7">
         <v>2</v>
@@ -4301,25 +4315,25 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>12006</v>
+        <v>12004</v>
       </c>
       <c r="B69" s="7">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C69" s="7">
         <v>12</v>
       </c>
       <c r="D69" s="7">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E69" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="F69" s="7">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G69" s="7">
-        <v>1000000000</v>
+        <v>800000000</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4340,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O69" s="7">
         <v>2</v>
@@ -4351,25 +4365,25 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>12007</v>
+        <v>12005</v>
       </c>
       <c r="B70" s="7">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C70" s="7">
         <v>12</v>
       </c>
       <c r="D70" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E70" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F70" s="7">
         <v>200000</v>
       </c>
-      <c r="E70" s="7">
-        <v>400000</v>
-      </c>
-      <c r="F70" s="7">
-        <v>800000</v>
-      </c>
       <c r="G70" s="7">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4390,7 +4404,7 @@
         <v>30</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O70" s="7">
         <v>2</v>
@@ -4401,25 +4415,25 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="B71" s="7">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C71" s="7">
         <v>12</v>
       </c>
       <c r="D71" s="7">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="E71" s="7">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="F71" s="7">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="G71" s="7">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -4440,24 +4454,114 @@
         <v>30</v>
       </c>
       <c r="N71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O71" s="7">
+        <v>2</v>
+      </c>
+      <c r="P71" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>12007</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1127</v>
+      </c>
+      <c r="C72" s="7">
+        <v>12</v>
+      </c>
+      <c r="D72" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E72" s="7">
+        <v>400000</v>
+      </c>
+      <c r="F72" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G72" s="7">
+        <v>2000000000</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>9</v>
+      </c>
+      <c r="J72" s="7">
+        <v>4</v>
+      </c>
+      <c r="K72" s="7">
+        <v>20</v>
+      </c>
+      <c r="L72" s="7">
+        <v>15</v>
+      </c>
+      <c r="M72" s="7">
+        <v>30</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O72" s="7">
+        <v>2</v>
+      </c>
+      <c r="P72" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>12008</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1128</v>
+      </c>
+      <c r="C73" s="7">
+        <v>12</v>
+      </c>
+      <c r="D73" s="7">
+        <v>500000</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="G73" s="7">
+        <v>2000000000</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>9</v>
+      </c>
+      <c r="J73" s="7">
+        <v>4</v>
+      </c>
+      <c r="K73" s="7">
+        <v>20</v>
+      </c>
+      <c r="L73" s="7">
+        <v>15</v>
+      </c>
+      <c r="M73" s="7">
+        <v>30</v>
+      </c>
+      <c r="N73" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O71" s="7">
-        <v>2</v>
-      </c>
-      <c r="P71" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="O73" s="7">
+        <v>2</v>
+      </c>
+      <c r="P73" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
@@ -4473,7 +4577,6 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
@@ -5772,6 +5875,17 @@
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -950,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S314"/>
+  <dimension ref="A1:S323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="R7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <v>25</v>
@@ -1387,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="R8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="7">
         <v>25</v>
@@ -1395,31 +1395,31 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G9" s="7">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1440,52 +1440,48 @@
       <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7">
         <v>2</v>
       </c>
-      <c r="S9" s="7">
-        <v>22</v>
-      </c>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>2002</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1497,52 +1493,48 @@
       <c r="P10" s="7">
         <v>5</v>
       </c>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7">
         <v>2</v>
       </c>
-      <c r="S10" s="7">
-        <v>26</v>
-      </c>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>2003</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7">
+        <v>400</v>
+      </c>
+      <c r="G11" s="7">
         <v>4000</v>
       </c>
-      <c r="G11" s="7">
-        <v>40000</v>
-      </c>
       <c r="H11" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -1554,43 +1546,48 @@
       <c r="P11" s="7">
         <v>5</v>
       </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7">
+        <v>2</v>
+      </c>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>2004</v>
+        <v>1008</v>
       </c>
       <c r="B12" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
         <v>200</v>
       </c>
-      <c r="E12" s="7">
-        <v>400</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8000</v>
-      </c>
       <c r="G12" s="7">
-        <v>80000</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="7">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -1602,43 +1599,48 @@
       <c r="P12" s="7">
         <v>5</v>
       </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7">
+        <v>2</v>
+      </c>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>2005</v>
+        <v>1009</v>
       </c>
       <c r="B13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7">
-        <v>200000</v>
+        <v>4000</v>
       </c>
       <c r="H13" s="7">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -1650,43 +1652,48 @@
       <c r="P13" s="7">
         <v>5</v>
       </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7">
+        <v>2</v>
+      </c>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>3001</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7">
         <v>2000</v>
       </c>
-      <c r="F14" s="7">
-        <v>40000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>400000</v>
-      </c>
       <c r="H14" s="7">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1698,43 +1705,48 @@
       <c r="P14" s="7">
         <v>5</v>
       </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7">
+        <v>2</v>
+      </c>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>3002</v>
+        <v>2001</v>
       </c>
       <c r="B15" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>2000</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="7">
-        <v>800000</v>
+        <v>10000</v>
       </c>
       <c r="H15" s="7">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7">
         <v>9</v>
       </c>
       <c r="J15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -1746,31 +1758,40 @@
       <c r="P15" s="7">
         <v>5</v>
       </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+      <c r="S15" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>3003</v>
+        <v>2002</v>
       </c>
       <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E16" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="7">
-        <v>200000</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3000</v>
       </c>
       <c r="I16" s="7">
         <v>9</v>
@@ -1794,31 +1815,40 @@
       <c r="P16" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>2</v>
+      </c>
+      <c r="S16" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>3004</v>
+        <v>2003</v>
       </c>
       <c r="B17" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E17" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7">
-        <v>400000</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="7">
-        <v>4000000</v>
+        <v>40000</v>
       </c>
       <c r="H17" s="7">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7">
         <v>9</v>
@@ -1842,35 +1872,40 @@
       <c r="P17" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>3005</v>
+        <v>2004</v>
       </c>
       <c r="B18" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="E18" s="7">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="F18" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>8000</v>
+      </c>
+      <c r="G18" s="7">
+        <v>80000</v>
+      </c>
       <c r="H18" s="7">
-        <v>6000</v>
+        <v>150</v>
       </c>
       <c r="I18" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <v>13</v>
@@ -1881,46 +1916,47 @@
       <c r="M18" s="7">
         <v>30</v>
       </c>
-      <c r="N18" s="8">
-        <v>100000</v>
-      </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="7">
         <v>2</v>
       </c>
       <c r="P18" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>3006</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="E19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="7">
         <v>20000</v>
       </c>
-      <c r="F19" s="7">
-        <v>400000</v>
-      </c>
       <c r="G19" s="7">
-        <v>4000000</v>
+        <v>200000</v>
       </c>
       <c r="H19" s="7">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="I19" s="7">
         <v>9</v>
       </c>
       <c r="J19" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19" s="7">
         <v>13</v>
@@ -1938,43 +1974,46 @@
       <c r="P19" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>3007</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>20000</v>
+        <v>25</v>
       </c>
       <c r="E20" s="7">
-        <v>40000</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7">
-        <v>800000</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="7">
-        <v>8000000</v>
+        <v>10000</v>
       </c>
       <c r="H20" s="7">
-        <v>12000</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
         <v>9</v>
       </c>
       <c r="J20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -1986,35 +2025,46 @@
       <c r="P20" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="7">
+        <v>8</v>
+      </c>
+      <c r="R20" s="7">
+        <v>2</v>
+      </c>
+      <c r="S20" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>3008</v>
+        <v>2007</v>
       </c>
       <c r="B21" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>20000</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7">
-        <v>40000</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="7">
+        <v>10000</v>
+      </c>
       <c r="H21" s="7">
-        <v>12000</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="7">
         <v>13</v>
@@ -2025,46 +2075,47 @@
       <c r="M21" s="7">
         <v>30</v>
       </c>
-      <c r="N21" s="8">
-        <v>500000</v>
-      </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="7">
         <v>2</v>
       </c>
       <c r="P21" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>3009</v>
+        <v>2008</v>
       </c>
       <c r="B22" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="7">
         <v>40000</v>
       </c>
-      <c r="F22" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G22" s="7">
-        <v>8000000</v>
-      </c>
       <c r="H22" s="7">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
       </c>
       <c r="J22" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K22" s="7">
         <v>13</v>
@@ -2083,30 +2134,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>3010</v>
+        <v>3001</v>
       </c>
       <c r="B23" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
       </c>
       <c r="D23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="7">
         <v>40000</v>
       </c>
-      <c r="E23" s="7">
-        <v>80000</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1600000</v>
-      </c>
       <c r="G23" s="7">
-        <v>16000000</v>
+        <v>400000</v>
       </c>
       <c r="H23" s="7">
-        <v>20000</v>
+        <v>600</v>
       </c>
       <c r="I23" s="7">
         <v>9</v>
@@ -2131,34 +2182,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>3011</v>
+        <v>3002</v>
       </c>
       <c r="B24" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="7">
         <v>80000</v>
       </c>
-      <c r="F24" s="7">
-        <v>16000000</v>
-      </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>800000</v>
+      </c>
       <c r="H24" s="7">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="7">
         <v>13</v>
@@ -2169,9 +2222,7 @@
       <c r="M24" s="7">
         <v>30</v>
       </c>
-      <c r="N24" s="8">
-        <v>1000000</v>
-      </c>
+      <c r="N24" s="8"/>
       <c r="O24" s="7">
         <v>2</v>
       </c>
@@ -2179,36 +2230,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>3012</v>
+        <v>3003</v>
       </c>
       <c r="B25" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="E25" s="7">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F25" s="7">
-        <v>1600000</v>
+        <v>200000</v>
       </c>
       <c r="G25" s="7">
-        <v>16000000</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="I25" s="7">
         <v>9</v>
       </c>
       <c r="J25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K25" s="7">
         <v>13</v>
@@ -2227,30 +2278,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>3013</v>
+        <v>3004</v>
       </c>
       <c r="B26" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G26" s="7">
         <v>4000000</v>
       </c>
-      <c r="G26" s="7">
-        <v>40000000</v>
-      </c>
       <c r="H26" s="7">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="I26" s="7">
         <v>9</v>
@@ -2275,28 +2326,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>3014</v>
+        <v>3005</v>
       </c>
       <c r="B27" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E27" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="F27" s="7">
-        <v>40000000</v>
+        <v>4000000</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="I27" s="7">
         <v>5</v>
@@ -2314,7 +2365,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="8">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="O27" s="7">
         <v>2</v>
@@ -2323,36 +2374,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>3015</v>
+        <v>3006</v>
       </c>
       <c r="B28" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7">
         <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="E28" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="7">
         <v>400000</v>
       </c>
-      <c r="F28" s="7">
-        <v>8000000</v>
-      </c>
       <c r="G28" s="7">
-        <v>80000000</v>
+        <v>4000000</v>
       </c>
       <c r="H28" s="7">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="I28" s="7">
         <v>9</v>
       </c>
       <c r="J28" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K28" s="7">
         <v>13</v>
@@ -2371,34 +2422,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>3016</v>
+        <v>3007</v>
       </c>
       <c r="B29" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E29" s="7">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="F29" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="G29" s="7"/>
+        <v>800000</v>
+      </c>
+      <c r="G29" s="7">
+        <v>8000000</v>
+      </c>
       <c r="H29" s="7">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="I29" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7">
         <v>13</v>
@@ -2409,9 +2462,7 @@
       <c r="M29" s="7">
         <v>30</v>
       </c>
-      <c r="N29" s="8">
-        <v>5000000</v>
-      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="7">
         <v>2</v>
       </c>
@@ -2419,48 +2470,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>11001</v>
+        <v>3008</v>
       </c>
       <c r="B30" s="7">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>75</v>
+        <v>20000</v>
       </c>
       <c r="E30" s="7">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="F30" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="7">
-        <v>20000000</v>
-      </c>
+        <v>8000000</v>
+      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I30" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J30" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K30" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L30" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>74</v>
+      <c r="N30" s="8">
+        <v>500000</v>
       </c>
       <c r="O30" s="7">
         <v>2</v>
@@ -2469,49 +2518,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>11002</v>
+        <v>3009</v>
       </c>
       <c r="B31" s="7">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E31" s="7">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="F31" s="7">
-        <v>20000</v>
+        <v>800000</v>
       </c>
       <c r="G31" s="7">
-        <v>200000000</v>
+        <v>8000000</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I31" s="7">
         <v>9</v>
       </c>
       <c r="J31" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L31" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="7">
         <v>2</v>
       </c>
@@ -2519,49 +2566,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>11003</v>
+        <v>3010</v>
       </c>
       <c r="B32" s="7">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="E32" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="G32" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="H32" s="7">
         <v>20000</v>
-      </c>
-      <c r="F32" s="7">
-        <v>40000</v>
-      </c>
-      <c r="G32" s="7">
-        <v>400000000</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>9</v>
       </c>
       <c r="J32" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K32" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L32" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="7">
         <v>2</v>
       </c>
@@ -2571,46 +2616,44 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>11004</v>
+        <v>3011</v>
       </c>
       <c r="B33" s="7">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E33" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F33" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
         <v>20000</v>
       </c>
-      <c r="E33" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F33" s="7">
-        <v>80000</v>
-      </c>
-      <c r="G33" s="7">
-        <v>800000000</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
       <c r="I33" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J33" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>77</v>
+      <c r="N33" s="8">
+        <v>1000000</v>
       </c>
       <c r="O33" s="7">
         <v>2</v>
@@ -2621,47 +2664,45 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>11005</v>
+        <v>3012</v>
       </c>
       <c r="B34" s="7">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C34" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="E34" s="7">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="F34" s="7">
-        <v>200000</v>
+        <v>1600000</v>
       </c>
       <c r="G34" s="7">
-        <v>1000000000</v>
+        <v>16000000</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I34" s="7">
         <v>9</v>
       </c>
       <c r="J34" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L34" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="N34" s="8"/>
       <c r="O34" s="7">
         <v>2</v>
       </c>
@@ -2671,13 +2712,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>11006</v>
+        <v>3013</v>
       </c>
       <c r="B35" s="7">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
         <v>100000</v>
@@ -2686,32 +2727,30 @@
         <v>200000</v>
       </c>
       <c r="F35" s="7">
-        <v>400000</v>
+        <v>4000000</v>
       </c>
       <c r="G35" s="7">
-        <v>1000000000</v>
+        <v>40000000</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I35" s="7">
         <v>9</v>
       </c>
       <c r="J35" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L35" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="N35" s="8"/>
       <c r="O35" s="7">
         <v>2</v>
       </c>
@@ -2721,46 +2760,44 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>11007</v>
+        <v>3014</v>
       </c>
       <c r="B36" s="7">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D36" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E36" s="7">
         <v>200000</v>
       </c>
-      <c r="E36" s="7">
-        <v>400000</v>
-      </c>
       <c r="F36" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2000000000</v>
-      </c>
+        <v>40000000</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J36" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L36" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>80</v>
+      <c r="N36" s="8">
+        <v>1000000</v>
       </c>
       <c r="O36" s="7">
         <v>2</v>
@@ -2771,47 +2808,45 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>11008</v>
+        <v>3015</v>
       </c>
       <c r="B37" s="7">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E37" s="7">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="F37" s="7">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="G37" s="7">
-        <v>2000000000</v>
+        <v>80000000</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I37" s="7">
         <v>9</v>
       </c>
       <c r="J37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L37" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="7">
         <v>2</v>
       </c>
@@ -2821,34 +2856,32 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>21001</v>
+        <v>3016</v>
       </c>
       <c r="B38" s="7">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C38" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E38" s="7">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
+        <v>80000000</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I38" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="7">
         <v>13</v>
@@ -2859,7 +2892,9 @@
       <c r="M38" s="7">
         <v>30</v>
       </c>
-      <c r="N38" s="8"/>
+      <c r="N38" s="8">
+        <v>5000000</v>
+      </c>
       <c r="O38" s="7">
         <v>2</v>
       </c>
@@ -2869,25 +2904,25 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>21002</v>
+        <v>11001</v>
       </c>
       <c r="B39" s="7">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="C39" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E39" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F39" s="7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="7">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -2896,18 +2931,20 @@
         <v>9</v>
       </c>
       <c r="J39" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L39" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="O39" s="7">
         <v>2</v>
       </c>
@@ -2917,45 +2954,47 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>22001</v>
+        <v>11002</v>
       </c>
       <c r="B40" s="7">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="C40" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F40" s="7">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G40" s="7">
-        <v>0</v>
+        <v>200000000</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J40" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L40" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M40" s="7">
         <v>30</v>
       </c>
-      <c r="N40" s="8"/>
+      <c r="N40" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="O40" s="7">
         <v>2</v>
       </c>
@@ -2965,34 +3004,34 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>31001</v>
+        <v>11003</v>
       </c>
       <c r="B41" s="7">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="C41" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D41" s="7">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="E41" s="7">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="7">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="7">
-        <v>2000</v>
+        <v>400000000</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J41" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="7">
         <v>20</v>
@@ -3003,7 +3042,9 @@
       <c r="M41" s="7">
         <v>30</v>
       </c>
-      <c r="N41" s="8"/>
+      <c r="N41" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="O41" s="7">
         <v>2</v>
       </c>
@@ -3013,34 +3054,34 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>32002</v>
+        <v>11004</v>
       </c>
       <c r="B42" s="7">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="C42" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D42" s="7">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E42" s="7">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F42" s="7">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="G42" s="7">
-        <v>2000000</v>
+        <v>800000000</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J42" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K42" s="7">
         <v>20</v>
@@ -3051,7 +3092,9 @@
       <c r="M42" s="7">
         <v>30</v>
       </c>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="O42" s="7">
         <v>2</v>
       </c>
@@ -3061,34 +3104,34 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>4001</v>
+        <v>11005</v>
       </c>
       <c r="B43" s="7">
-        <v>1001</v>
+        <v>105</v>
       </c>
       <c r="C43" s="7">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E43" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F43" s="7">
+        <v>200000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1000000000</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>9</v>
+      </c>
+      <c r="J43" s="7">
         <v>4</v>
-      </c>
-      <c r="D43" s="7">
-        <v>5</v>
-      </c>
-      <c r="E43" s="7">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7">
-        <v>200</v>
-      </c>
-      <c r="G43" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
-        <v>5</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0</v>
       </c>
       <c r="K43" s="7">
         <v>20</v>
@@ -3099,7 +3142,9 @@
       <c r="M43" s="7">
         <v>30</v>
       </c>
-      <c r="N43" s="8"/>
+      <c r="N43" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="O43" s="7">
         <v>2</v>
       </c>
@@ -3109,34 +3154,34 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>4002</v>
+        <v>11006</v>
       </c>
       <c r="B44" s="7">
-        <v>1002</v>
+        <v>106</v>
       </c>
       <c r="C44" s="7">
+        <v>11</v>
+      </c>
+      <c r="D44" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E44" s="7">
+        <v>200000</v>
+      </c>
+      <c r="F44" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1000000000</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>9</v>
+      </c>
+      <c r="J44" s="7">
         <v>4</v>
-      </c>
-      <c r="D44" s="7">
-        <v>10</v>
-      </c>
-      <c r="E44" s="7">
-        <v>20</v>
-      </c>
-      <c r="F44" s="7">
-        <v>400</v>
-      </c>
-      <c r="G44" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H44" s="7">
-        <v>5</v>
-      </c>
-      <c r="I44" s="7">
-        <v>5</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
       </c>
       <c r="K44" s="7">
         <v>20</v>
@@ -3147,7 +3192,9 @@
       <c r="M44" s="7">
         <v>30</v>
       </c>
-      <c r="N44" s="8"/>
+      <c r="N44" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="O44" s="7">
         <v>2</v>
       </c>
@@ -3157,34 +3204,34 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>5001</v>
+        <v>11007</v>
       </c>
       <c r="B45" s="7">
-        <v>1003</v>
+        <v>107</v>
       </c>
       <c r="C45" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" s="7">
-        <v>25</v>
+        <v>200000</v>
       </c>
       <c r="E45" s="7">
-        <v>50</v>
+        <v>400000</v>
       </c>
       <c r="F45" s="7">
-        <v>1000</v>
+        <v>800000</v>
       </c>
       <c r="G45" s="7">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="H45" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I45" s="7">
         <v>9</v>
       </c>
       <c r="J45" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45" s="7">
         <v>20</v>
@@ -3195,7 +3242,9 @@
       <c r="M45" s="7">
         <v>30</v>
       </c>
-      <c r="N45" s="8"/>
+      <c r="N45" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="O45" s="7">
         <v>2</v>
       </c>
@@ -3205,45 +3254,47 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>5002</v>
+        <v>11008</v>
       </c>
       <c r="B46" s="7">
-        <v>1004</v>
+        <v>108</v>
       </c>
       <c r="C46" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" s="7">
-        <v>25</v>
+        <v>500000</v>
       </c>
       <c r="E46" s="7">
-        <v>50</v>
+        <v>1000000</v>
       </c>
       <c r="F46" s="7">
-        <v>1000</v>
+        <v>2000000</v>
       </c>
       <c r="G46" s="7">
-        <v>10000</v>
+        <v>2000000000</v>
       </c>
       <c r="H46" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
         <v>9</v>
       </c>
       <c r="J46" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K46" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L46" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M46" s="7">
         <v>30</v>
       </c>
-      <c r="N46" s="8"/>
+      <c r="N46" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="O46" s="7">
         <v>2</v>
       </c>
@@ -3253,34 +3304,34 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>5003</v>
+        <v>21001</v>
       </c>
       <c r="B47" s="7">
-        <v>1005</v>
+        <v>201</v>
       </c>
       <c r="C47" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D47" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="7">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="7">
         <v>13</v>
@@ -3301,34 +3352,34 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>5004</v>
+        <v>21002</v>
       </c>
       <c r="B48" s="7">
-        <v>1006</v>
+        <v>202</v>
       </c>
       <c r="C48" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D48" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G48" s="7">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
         <v>9</v>
       </c>
       <c r="J48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="7">
         <v>13</v>
@@ -3349,34 +3400,34 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>5005</v>
+        <v>22001</v>
       </c>
       <c r="B49" s="7">
-        <v>1007</v>
+        <v>221</v>
       </c>
       <c r="C49" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D49" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G49" s="7">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="7">
         <v>13</v>
@@ -3397,40 +3448,40 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>6001</v>
+        <v>31001</v>
       </c>
       <c r="B50" s="7">
-        <v>1008</v>
+        <v>301</v>
       </c>
       <c r="C50" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D50" s="7">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E50" s="7">
+        <v>100</v>
+      </c>
+      <c r="F50" s="7">
+        <v>200</v>
+      </c>
+      <c r="G50" s="7">
         <v>2000</v>
       </c>
-      <c r="F50" s="7">
-        <v>40000</v>
-      </c>
-      <c r="G50" s="7">
-        <v>400000</v>
-      </c>
       <c r="H50" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L50" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M50" s="7">
         <v>30</v>
@@ -3445,40 +3496,40 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>6002</v>
+        <v>32002</v>
       </c>
       <c r="B51" s="7">
-        <v>1009</v>
+        <v>302</v>
       </c>
       <c r="C51" s="7">
+        <v>32</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E51" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F51" s="7">
+        <v>200000</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
         <v>6</v>
       </c>
-      <c r="D51" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E51" s="7">
-        <v>4000</v>
-      </c>
-      <c r="F51" s="7">
-        <v>80000</v>
-      </c>
-      <c r="G51" s="7">
-        <v>800000</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1200</v>
-      </c>
-      <c r="I51" s="7">
-        <v>9</v>
-      </c>
       <c r="J51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L51" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M51" s="7">
         <v>30</v>
@@ -3493,40 +3544,40 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>6003</v>
+        <v>4001</v>
       </c>
       <c r="B52" s="7">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C52" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" s="7">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="E52" s="7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G52" s="7">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="7">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L52" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M52" s="7">
         <v>30</v>
@@ -3541,40 +3592,40 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>6004</v>
+        <v>4002</v>
       </c>
       <c r="B53" s="7">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="C53" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" s="7">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E53" s="7">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7">
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="G53" s="7">
-        <v>4000000</v>
+        <v>4000</v>
       </c>
       <c r="H53" s="7">
-        <v>6000</v>
+        <v>5</v>
       </c>
       <c r="I53" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L53" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M53" s="7">
         <v>30</v>
@@ -3589,45 +3640,45 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <v>6005</v>
+        <v>5001</v>
       </c>
       <c r="B54" s="7">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C54" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" s="7">
+        <v>25</v>
+      </c>
+      <c r="E54" s="7">
+        <v>50</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="7">
         <v>10000</v>
       </c>
-      <c r="E54" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F54" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G54" s="7"/>
       <c r="H54" s="7">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="I54" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J54" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L54" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M54" s="7">
         <v>30</v>
       </c>
-      <c r="N54" s="8">
-        <v>100000</v>
-      </c>
+      <c r="N54" s="8"/>
       <c r="O54" s="7">
         <v>2</v>
       </c>
@@ -3637,34 +3688,34 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>6006</v>
+        <v>5002</v>
       </c>
       <c r="B55" s="7">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C55" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="7">
+        <v>25</v>
+      </c>
+      <c r="E55" s="7">
+        <v>50</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="7">
         <v>10000</v>
       </c>
-      <c r="E55" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F55" s="7">
-        <v>400000</v>
-      </c>
-      <c r="G55" s="7">
-        <v>4000000</v>
-      </c>
       <c r="H55" s="7">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="I55" s="7">
         <v>9</v>
       </c>
       <c r="J55" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K55" s="7">
         <v>13</v>
@@ -3685,28 +3736,28 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <v>6007</v>
+        <v>5003</v>
       </c>
       <c r="B56" s="7">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C56" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="7">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="E56" s="7">
+        <v>200</v>
+      </c>
+      <c r="F56" s="7">
+        <v>4000</v>
+      </c>
+      <c r="G56" s="7">
         <v>40000</v>
       </c>
-      <c r="F56" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G56" s="7">
-        <v>8000000</v>
-      </c>
       <c r="H56" s="7">
-        <v>12000</v>
+        <v>50</v>
       </c>
       <c r="I56" s="7">
         <v>9</v>
@@ -3733,32 +3784,34 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>6008</v>
+        <v>5004</v>
       </c>
       <c r="B57" s="7">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="C57" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="E57" s="7">
-        <v>40000</v>
+        <v>400</v>
       </c>
       <c r="F57" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G57" s="7"/>
+        <v>8000</v>
+      </c>
+      <c r="G57" s="7">
+        <v>80000</v>
+      </c>
       <c r="H57" s="7">
-        <v>12000</v>
+        <v>150</v>
       </c>
       <c r="I57" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" s="7">
         <v>13</v>
@@ -3769,9 +3822,7 @@
       <c r="M57" s="7">
         <v>30</v>
       </c>
-      <c r="N57" s="8">
-        <v>500000</v>
-      </c>
+      <c r="N57" s="8"/>
       <c r="O57" s="7">
         <v>2</v>
       </c>
@@ -3781,34 +3832,34 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>6009</v>
+        <v>5005</v>
       </c>
       <c r="B58" s="7">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C58" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" s="7">
+        <v>500</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="7">
         <v>20000</v>
       </c>
-      <c r="E58" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F58" s="7">
-        <v>800000</v>
-      </c>
       <c r="G58" s="7">
-        <v>8000000</v>
+        <v>200000</v>
       </c>
       <c r="H58" s="7">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="I58" s="7">
         <v>9</v>
       </c>
       <c r="J58" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K58" s="7">
         <v>13</v>
@@ -3829,28 +3880,28 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>6010</v>
+        <v>6001</v>
       </c>
       <c r="B59" s="7">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C59" s="7">
         <v>6</v>
       </c>
       <c r="D59" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="7">
         <v>40000</v>
       </c>
-      <c r="E59" s="7">
-        <v>80000</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1600000</v>
-      </c>
       <c r="G59" s="7">
-        <v>16000000</v>
+        <v>400000</v>
       </c>
       <c r="H59" s="7">
-        <v>20000</v>
+        <v>600</v>
       </c>
       <c r="I59" s="7">
         <v>9</v>
@@ -3877,32 +3928,34 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <v>6011</v>
+        <v>6002</v>
       </c>
       <c r="B60" s="7">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C60" s="7">
         <v>6</v>
       </c>
       <c r="D60" s="7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="7">
         <v>80000</v>
       </c>
-      <c r="F60" s="7">
-        <v>16000000</v>
-      </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7">
+        <v>800000</v>
+      </c>
       <c r="H60" s="7">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="I60" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J60" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="7">
         <v>13</v>
@@ -3913,9 +3966,7 @@
       <c r="M60" s="7">
         <v>30</v>
       </c>
-      <c r="N60" s="8">
-        <v>1000000</v>
-      </c>
+      <c r="N60" s="8"/>
       <c r="O60" s="7">
         <v>2</v>
       </c>
@@ -3925,34 +3976,34 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>6012</v>
+        <v>6003</v>
       </c>
       <c r="B61" s="7">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C61" s="7">
         <v>6</v>
       </c>
       <c r="D61" s="7">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="E61" s="7">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F61" s="7">
-        <v>1600000</v>
+        <v>200000</v>
       </c>
       <c r="G61" s="7">
-        <v>16000000</v>
+        <v>2000000</v>
       </c>
       <c r="H61" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="I61" s="7">
         <v>9</v>
       </c>
       <c r="J61" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K61" s="7">
         <v>13</v>
@@ -3973,28 +4024,28 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <v>6013</v>
+        <v>6004</v>
       </c>
       <c r="B62" s="7">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C62" s="7">
         <v>6</v>
       </c>
       <c r="D62" s="7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E62" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="F62" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G62" s="7">
         <v>4000000</v>
       </c>
-      <c r="G62" s="7">
-        <v>40000000</v>
-      </c>
       <c r="H62" s="7">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="7">
         <v>9</v>
@@ -4021,26 +4072,26 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>6014</v>
+        <v>6005</v>
       </c>
       <c r="B63" s="7">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C63" s="7">
         <v>6</v>
       </c>
       <c r="D63" s="7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E63" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="F63" s="7">
-        <v>40000000</v>
+        <v>4000000</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="I63" s="7">
         <v>5</v>
@@ -4058,7 +4109,7 @@
         <v>30</v>
       </c>
       <c r="N63" s="8">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="O63" s="7">
         <v>2</v>
@@ -4069,34 +4120,34 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <v>6015</v>
+        <v>6006</v>
       </c>
       <c r="B64" s="7">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="C64" s="7">
         <v>6</v>
       </c>
       <c r="D64" s="7">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="E64" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F64" s="7">
         <v>400000</v>
       </c>
-      <c r="F64" s="7">
-        <v>8000000</v>
-      </c>
       <c r="G64" s="7">
-        <v>80000000</v>
+        <v>4000000</v>
       </c>
       <c r="H64" s="7">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="I64" s="7">
         <v>9</v>
       </c>
       <c r="J64" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K64" s="7">
         <v>13</v>
@@ -4117,32 +4168,34 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>6016</v>
+        <v>6007</v>
       </c>
       <c r="B65" s="7">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C65" s="7">
         <v>6</v>
       </c>
       <c r="D65" s="7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E65" s="7">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="F65" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="G65" s="7"/>
+        <v>800000</v>
+      </c>
+      <c r="G65" s="7">
+        <v>8000000</v>
+      </c>
       <c r="H65" s="7">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="I65" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="7">
         <v>13</v>
@@ -4153,9 +4206,7 @@
       <c r="M65" s="7">
         <v>30</v>
       </c>
-      <c r="N65" s="8">
-        <v>5000000</v>
-      </c>
+      <c r="N65" s="8"/>
       <c r="O65" s="7">
         <v>2</v>
       </c>
@@ -4165,46 +4216,44 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>12001</v>
+        <v>6008</v>
       </c>
       <c r="B66" s="7">
-        <v>1121</v>
+        <v>1015</v>
       </c>
       <c r="C66" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D66" s="7">
-        <v>75</v>
+        <v>20000</v>
       </c>
       <c r="E66" s="7">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="F66" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G66" s="7">
-        <v>20000000</v>
-      </c>
+        <v>8000000</v>
+      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I66" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J66" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K66" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L66" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M66" s="7">
         <v>30</v>
       </c>
-      <c r="N66" s="8" t="s">
-        <v>74</v>
+      <c r="N66" s="8">
+        <v>500000</v>
       </c>
       <c r="O66" s="7">
         <v>2</v>
@@ -4215,47 +4264,45 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>12002</v>
+        <v>6009</v>
       </c>
       <c r="B67" s="7">
-        <v>1122</v>
+        <v>1016</v>
       </c>
       <c r="C67" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D67" s="7">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E67" s="7">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="F67" s="7">
-        <v>20000</v>
+        <v>800000</v>
       </c>
       <c r="G67" s="7">
-        <v>200000000</v>
+        <v>8000000</v>
       </c>
       <c r="H67" s="7">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I67" s="7">
         <v>9</v>
       </c>
       <c r="J67" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K67" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L67" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M67" s="7">
         <v>30</v>
       </c>
-      <c r="N67" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="N67" s="8"/>
       <c r="O67" s="7">
         <v>2</v>
       </c>
@@ -4265,47 +4312,45 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>12003</v>
+        <v>6010</v>
       </c>
       <c r="B68" s="7">
-        <v>1123</v>
+        <v>1017</v>
       </c>
       <c r="C68" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D68" s="7">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="E68" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="G68" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="H68" s="7">
         <v>20000</v>
-      </c>
-      <c r="F68" s="7">
-        <v>40000</v>
-      </c>
-      <c r="G68" s="7">
-        <v>400000000</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
       </c>
       <c r="I68" s="7">
         <v>9</v>
       </c>
       <c r="J68" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K68" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L68" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M68" s="7">
         <v>30</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="N68" s="8"/>
       <c r="O68" s="7">
         <v>2</v>
       </c>
@@ -4315,46 +4360,44 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>12004</v>
+        <v>6011</v>
       </c>
       <c r="B69" s="7">
-        <v>1124</v>
+        <v>1018</v>
       </c>
       <c r="C69" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D69" s="7">
+        <v>40000</v>
+      </c>
+      <c r="E69" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F69" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7">
         <v>20000</v>
       </c>
-      <c r="E69" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F69" s="7">
-        <v>80000</v>
-      </c>
-      <c r="G69" s="7">
-        <v>800000000</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
       <c r="I69" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J69" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K69" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L69" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M69" s="7">
         <v>30</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>77</v>
+      <c r="N69" s="8">
+        <v>1000000</v>
       </c>
       <c r="O69" s="7">
         <v>2</v>
@@ -4365,47 +4408,45 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>12005</v>
+        <v>6012</v>
       </c>
       <c r="B70" s="7">
-        <v>1125</v>
+        <v>1019</v>
       </c>
       <c r="C70" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D70" s="7">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="E70" s="7">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="F70" s="7">
-        <v>200000</v>
+        <v>1600000</v>
       </c>
       <c r="G70" s="7">
-        <v>1000000000</v>
+        <v>16000000</v>
       </c>
       <c r="H70" s="7">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I70" s="7">
         <v>9</v>
       </c>
       <c r="J70" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K70" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L70" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M70" s="7">
         <v>30</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="N70" s="8"/>
       <c r="O70" s="7">
         <v>2</v>
       </c>
@@ -4415,13 +4456,13 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>12006</v>
+        <v>6013</v>
       </c>
       <c r="B71" s="7">
-        <v>1126</v>
+        <v>1020</v>
       </c>
       <c r="C71" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D71" s="7">
         <v>100000</v>
@@ -4430,32 +4471,30 @@
         <v>200000</v>
       </c>
       <c r="F71" s="7">
-        <v>400000</v>
+        <v>4000000</v>
       </c>
       <c r="G71" s="7">
-        <v>1000000000</v>
+        <v>40000000</v>
       </c>
       <c r="H71" s="7">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I71" s="7">
         <v>9</v>
       </c>
       <c r="J71" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K71" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L71" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M71" s="7">
         <v>30</v>
       </c>
-      <c r="N71" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="N71" s="8"/>
       <c r="O71" s="7">
         <v>2</v>
       </c>
@@ -4465,46 +4504,44 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>12007</v>
+        <v>6014</v>
       </c>
       <c r="B72" s="7">
-        <v>1127</v>
+        <v>1021</v>
       </c>
       <c r="C72" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D72" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E72" s="7">
         <v>200000</v>
       </c>
-      <c r="E72" s="7">
-        <v>400000</v>
-      </c>
       <c r="F72" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G72" s="7">
-        <v>2000000000</v>
-      </c>
+        <v>40000000</v>
+      </c>
+      <c r="G72" s="7"/>
       <c r="H72" s="7">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I72" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J72" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L72" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M72" s="7">
         <v>30</v>
       </c>
-      <c r="N72" s="8" t="s">
-        <v>80</v>
+      <c r="N72" s="8">
+        <v>1000000</v>
       </c>
       <c r="O72" s="7">
         <v>2</v>
@@ -4515,1377 +4552,1823 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>12008</v>
+        <v>6015</v>
       </c>
       <c r="B73" s="7">
-        <v>1128</v>
+        <v>1022</v>
       </c>
       <c r="C73" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D73" s="7">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E73" s="7">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="F73" s="7">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="G73" s="7">
-        <v>2000000000</v>
+        <v>80000000</v>
       </c>
       <c r="H73" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I73" s="7">
         <v>9</v>
       </c>
       <c r="J73" s="7">
+        <v>1</v>
+      </c>
+      <c r="K73" s="7">
+        <v>13</v>
+      </c>
+      <c r="L73" s="7">
+        <v>8</v>
+      </c>
+      <c r="M73" s="7">
+        <v>30</v>
+      </c>
+      <c r="N73" s="8"/>
+      <c r="O73" s="7">
+        <v>2</v>
+      </c>
+      <c r="P73" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>6016</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1023</v>
+      </c>
+      <c r="C74" s="7">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E74" s="7">
+        <v>400000</v>
+      </c>
+      <c r="F74" s="7">
+        <v>80000000</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I74" s="7">
+        <v>5</v>
+      </c>
+      <c r="J74" s="7">
+        <v>2</v>
+      </c>
+      <c r="K74" s="7">
+        <v>13</v>
+      </c>
+      <c r="L74" s="7">
+        <v>8</v>
+      </c>
+      <c r="M74" s="7">
+        <v>30</v>
+      </c>
+      <c r="N74" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="O74" s="7">
+        <v>2</v>
+      </c>
+      <c r="P74" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>12001</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1121</v>
+      </c>
+      <c r="C75" s="7">
+        <v>12</v>
+      </c>
+      <c r="D75" s="7">
+        <v>75</v>
+      </c>
+      <c r="E75" s="7">
+        <v>150</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G75" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>9</v>
+      </c>
+      <c r="J75" s="7">
         <v>4</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K75" s="7">
         <v>20</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L75" s="7">
         <v>15</v>
       </c>
-      <c r="M73" s="7">
-        <v>30</v>
-      </c>
-      <c r="N73" s="8" t="s">
+      <c r="M75" s="7">
+        <v>30</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O75" s="7">
+        <v>2</v>
+      </c>
+      <c r="P75" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>12002</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1122</v>
+      </c>
+      <c r="C76" s="7">
+        <v>12</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G76" s="7">
+        <v>200000000</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>9</v>
+      </c>
+      <c r="J76" s="7">
+        <v>4</v>
+      </c>
+      <c r="K76" s="7">
+        <v>20</v>
+      </c>
+      <c r="L76" s="7">
+        <v>15</v>
+      </c>
+      <c r="M76" s="7">
+        <v>30</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O76" s="7">
+        <v>2</v>
+      </c>
+      <c r="P76" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>12003</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1123</v>
+      </c>
+      <c r="C77" s="7">
+        <v>12</v>
+      </c>
+      <c r="D77" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E77" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F77" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G77" s="7">
+        <v>400000000</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>9</v>
+      </c>
+      <c r="J77" s="7">
+        <v>4</v>
+      </c>
+      <c r="K77" s="7">
+        <v>20</v>
+      </c>
+      <c r="L77" s="7">
+        <v>15</v>
+      </c>
+      <c r="M77" s="7">
+        <v>30</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O77" s="7">
+        <v>2</v>
+      </c>
+      <c r="P77" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>12004</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1124</v>
+      </c>
+      <c r="C78" s="7">
+        <v>12</v>
+      </c>
+      <c r="D78" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E78" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F78" s="7">
+        <v>80000</v>
+      </c>
+      <c r="G78" s="7">
+        <v>800000000</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>9</v>
+      </c>
+      <c r="J78" s="7">
+        <v>4</v>
+      </c>
+      <c r="K78" s="7">
+        <v>20</v>
+      </c>
+      <c r="L78" s="7">
+        <v>15</v>
+      </c>
+      <c r="M78" s="7">
+        <v>30</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O78" s="7">
+        <v>2</v>
+      </c>
+      <c r="P78" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>12005</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1125</v>
+      </c>
+      <c r="C79" s="7">
+        <v>12</v>
+      </c>
+      <c r="D79" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E79" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F79" s="7">
+        <v>200000</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1000000000</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>9</v>
+      </c>
+      <c r="J79" s="7">
+        <v>4</v>
+      </c>
+      <c r="K79" s="7">
+        <v>20</v>
+      </c>
+      <c r="L79" s="7">
+        <v>15</v>
+      </c>
+      <c r="M79" s="7">
+        <v>30</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O79" s="7">
+        <v>2</v>
+      </c>
+      <c r="P79" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>12006</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1126</v>
+      </c>
+      <c r="C80" s="7">
+        <v>12</v>
+      </c>
+      <c r="D80" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E80" s="7">
+        <v>200000</v>
+      </c>
+      <c r="F80" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1000000000</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>9</v>
+      </c>
+      <c r="J80" s="7">
+        <v>4</v>
+      </c>
+      <c r="K80" s="7">
+        <v>20</v>
+      </c>
+      <c r="L80" s="7">
+        <v>15</v>
+      </c>
+      <c r="M80" s="7">
+        <v>30</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O80" s="7">
+        <v>2</v>
+      </c>
+      <c r="P80" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>12007</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1127</v>
+      </c>
+      <c r="C81" s="7">
+        <v>12</v>
+      </c>
+      <c r="D81" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E81" s="7">
+        <v>400000</v>
+      </c>
+      <c r="F81" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G81" s="7">
+        <v>2000000000</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>9</v>
+      </c>
+      <c r="J81" s="7">
+        <v>4</v>
+      </c>
+      <c r="K81" s="7">
+        <v>20</v>
+      </c>
+      <c r="L81" s="7">
+        <v>15</v>
+      </c>
+      <c r="M81" s="7">
+        <v>30</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O81" s="7">
+        <v>2</v>
+      </c>
+      <c r="P81" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>12008</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1128</v>
+      </c>
+      <c r="C82" s="7">
+        <v>12</v>
+      </c>
+      <c r="D82" s="7">
+        <v>500000</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2000000000</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>9</v>
+      </c>
+      <c r="J82" s="7">
+        <v>4</v>
+      </c>
+      <c r="K82" s="7">
+        <v>20</v>
+      </c>
+      <c r="L82" s="7">
+        <v>15</v>
+      </c>
+      <c r="M82" s="7">
+        <v>30</v>
+      </c>
+      <c r="N82" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O73" s="7">
-        <v>2</v>
-      </c>
-      <c r="P73" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O82" s="7">
+        <v>2</v>
+      </c>
+      <c r="P82" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
-      <c r="D274" s="5"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
-      <c r="D276" s="5"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
-      <c r="D280" s="5"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
-      <c r="D284" s="5"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
-      <c r="D286" s="5"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
-      <c r="D308" s="5"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
-      <c r="D310" s="5"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="5"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
@@ -1269,9 +1269,7 @@
       <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="Q6" s="7">
-        <v>2</v>
-      </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7">
         <v>1</v>
       </c>
@@ -1493,11 +1491,15 @@
       <c r="P10" s="7">
         <v>5</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7">
+        <v>2</v>
+      </c>
       <c r="R10" s="7">
         <v>2</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
@@ -1759,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="Q15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="7">
         <v>2</v>
@@ -1816,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="Q16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R16" s="7">
         <v>2</v>
@@ -2026,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="Q20" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R20" s="7">
         <v>2</v>

--- a/docs/excel/TTexasRoom.xlsx
+++ b/docs/excel/TTexasRoom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Initrbt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,6 +514,30 @@
   </si>
   <si>
     <t>[]int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全下/弃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initrbt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S323"/>
+  <dimension ref="A1:S313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>35</v>
@@ -1028,13 +1048,13 @@
         <v>36</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1045,22 +1065,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>19</v>
@@ -1078,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>19</v>
@@ -1103,7 +1123,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1111,58 +1131,58 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="R4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1176,19 +1196,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
         <v>5</v>
@@ -1213,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7">
         <v>1</v>
@@ -1227,25 +1247,25 @@
         <v>1002</v>
       </c>
       <c r="B6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G6" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
         <v>5</v>
@@ -1269,7 +1289,9 @@
       <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
       <c r="R6" s="7">
         <v>1</v>
       </c>
@@ -1288,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
         <v>5</v>
@@ -1325,10 +1347,10 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="7">
         <v>25</v>
@@ -1345,19 +1367,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G8" s="7">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
         <v>5</v>
@@ -1382,13 +1404,13 @@
         <v>5</v>
       </c>
       <c r="Q8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1396,7 +1418,7 @@
         <v>1005</v>
       </c>
       <c r="B9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1414,7 +1436,7 @@
         <v>4000</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
         <v>5</v>
@@ -1438,11 +1460,15 @@
       <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
       <c r="R9" s="7">
-        <v>2</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1455,19 +1481,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G10" s="7">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
         <v>5</v>
@@ -1492,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="Q10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1506,7 +1532,7 @@
         <v>1007</v>
       </c>
       <c r="B11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1524,7 +1550,7 @@
         <v>4000</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
         <v>5</v>
@@ -1548,11 +1574,15 @@
       <c r="P11" s="7">
         <v>5</v>
       </c>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
       <c r="R11" s="7">
-        <v>2</v>
-      </c>
-      <c r="S11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -1565,19 +1595,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G12" s="7">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
         <v>5</v>
@@ -1601,39 +1631,43 @@
       <c r="P12" s="7">
         <v>5</v>
       </c>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="7">
+        <v>3</v>
+      </c>
       <c r="R12" s="7">
-        <v>2</v>
-      </c>
-      <c r="S12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>1009</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E13" s="7">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G13" s="7">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
@@ -1654,48 +1688,52 @@
       <c r="P13" s="7">
         <v>5</v>
       </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>2</v>
+      </c>
       <c r="R13" s="7">
         <v>2</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>1010</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>500</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G14" s="7">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>200</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9</v>
+      </c>
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
       <c r="K14" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L14" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -1707,36 +1745,40 @@
       <c r="P14" s="7">
         <v>5</v>
       </c>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="7">
+        <v>4</v>
+      </c>
       <c r="R14" s="7">
         <v>2</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F15" s="7">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="7">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7">
         <v>9</v>
@@ -1772,28 +1814,28 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="E16" s="7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="7">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="7">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I16" s="7">
         <v>9</v>
@@ -1829,10 +1871,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -1850,19 +1892,19 @@
         <v>40000</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
         <v>9</v>
       </c>
       <c r="J17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -1874,34 +1916,40 @@
       <c r="P17" s="7">
         <v>5</v>
       </c>
+      <c r="Q17" s="7">
+        <v>2</v>
+      </c>
       <c r="R17" s="7">
         <v>2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7">
+        <v>500</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="7">
+        <v>200000</v>
+      </c>
+      <c r="H18" s="7">
         <v>200</v>
-      </c>
-      <c r="E18" s="7">
-        <v>400</v>
-      </c>
-      <c r="F18" s="7">
-        <v>8000</v>
-      </c>
-      <c r="G18" s="7">
-        <v>80000</v>
-      </c>
-      <c r="H18" s="7">
-        <v>150</v>
       </c>
       <c r="I18" s="7">
         <v>9</v>
@@ -1925,46 +1973,52 @@
       <c r="P18" s="7">
         <v>5</v>
       </c>
+      <c r="Q18" s="7">
+        <v>4</v>
+      </c>
       <c r="R18" s="7">
         <v>2</v>
+      </c>
+      <c r="S18" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E19" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G19" s="7">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="H19" s="7">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I19" s="7">
         <v>9</v>
       </c>
       <c r="J19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L19" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -1976,46 +2030,52 @@
       <c r="P19" s="7">
         <v>5</v>
       </c>
+      <c r="Q19" s="7">
+        <v>2</v>
+      </c>
       <c r="R19" s="7">
         <v>2</v>
+      </c>
+      <c r="S19" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="E20" s="7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="7">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="7">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I20" s="7">
         <v>9</v>
       </c>
       <c r="J20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L20" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -2028,39 +2088,39 @@
         <v>5</v>
       </c>
       <c r="Q20" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R20" s="7">
         <v>2</v>
       </c>
       <c r="S20" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>2007</v>
+        <v>3001</v>
       </c>
       <c r="B21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="7">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="F21" s="7">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="7">
-        <v>10000</v>
+        <v>800000</v>
       </c>
       <c r="H21" s="7">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="I21" s="7">
         <v>9</v>
@@ -2084,34 +2144,31 @@
       <c r="P21" s="7">
         <v>5</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <v>2008</v>
+        <v>3002</v>
       </c>
       <c r="B22" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="7">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="H22" s="7">
         <v>4000</v>
-      </c>
-      <c r="G22" s="7">
-        <v>40000</v>
-      </c>
-      <c r="H22" s="7">
-        <v>50</v>
       </c>
       <c r="I22" s="7">
         <v>9</v>
@@ -2138,28 +2195,28 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="B23" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F23" s="7">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="7">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="H23" s="7">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I23" s="7">
         <v>9</v>
@@ -2186,28 +2243,28 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="B24" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F24" s="7">
+        <v>400000</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="H24" s="7">
         <v>4000</v>
-      </c>
-      <c r="F24" s="7">
-        <v>80000</v>
-      </c>
-      <c r="G24" s="7">
-        <v>800000</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1200</v>
       </c>
       <c r="I24" s="7">
         <v>9</v>
@@ -2234,28 +2291,28 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="B25" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E25" s="7">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F25" s="7">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="7">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
       <c r="H25" s="7">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="I25" s="7">
         <v>9</v>
@@ -2282,10 +2339,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="B26" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -2303,7 +2360,7 @@
         <v>4000000</v>
       </c>
       <c r="H26" s="7">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="I26" s="7">
         <v>9</v>
@@ -2330,32 +2387,34 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="B27" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>80000</v>
+      </c>
+      <c r="G27" s="7">
+        <v>800000</v>
+      </c>
       <c r="H27" s="7">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="I27" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="7">
         <v>13</v>
@@ -2366,9 +2425,7 @@
       <c r="M27" s="7">
         <v>30</v>
       </c>
-      <c r="N27" s="8">
-        <v>100000</v>
-      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="7">
         <v>2</v>
       </c>
@@ -2378,10 +2435,10 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="B28" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
         <v>3</v>
@@ -2399,13 +2456,13 @@
         <v>4000000</v>
       </c>
       <c r="H28" s="7">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="I28" s="7">
         <v>9</v>
       </c>
       <c r="J28" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7">
         <v>13</v>
@@ -2426,45 +2483,47 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>3007</v>
+        <v>11001</v>
       </c>
       <c r="B29" s="7">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="E29" s="7">
-        <v>40000</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7">
-        <v>800000</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="7">
-        <v>8000000</v>
+        <v>20000000</v>
       </c>
       <c r="H29" s="7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>9</v>
       </c>
       <c r="J29" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L29" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
       </c>
-      <c r="N29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="O29" s="7">
         <v>2</v>
       </c>
@@ -2474,44 +2533,46 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>3008</v>
+        <v>11002</v>
       </c>
       <c r="B30" s="7">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G30" s="7">
+        <v>200000000</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>20</v>
+      </c>
+      <c r="L30" s="7">
         <v>15</v>
       </c>
-      <c r="C30" s="7">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7">
-        <v>20000</v>
-      </c>
-      <c r="E30" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F30" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
-        <v>12000</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5</v>
-      </c>
-      <c r="J30" s="7">
-        <v>2</v>
-      </c>
-      <c r="K30" s="7">
-        <v>13</v>
-      </c>
-      <c r="L30" s="7">
-        <v>8</v>
-      </c>
       <c r="M30" s="7">
         <v>30</v>
       </c>
-      <c r="N30" s="8">
-        <v>500000</v>
+      <c r="N30" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="O30" s="7">
         <v>2</v>
@@ -2522,45 +2583,47 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>3009</v>
+        <v>11003</v>
       </c>
       <c r="B31" s="7">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D31" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="7">
         <v>20000</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <v>40000</v>
       </c>
-      <c r="F31" s="7">
-        <v>800000</v>
-      </c>
       <c r="G31" s="7">
-        <v>8000000</v>
+        <v>400000000</v>
       </c>
       <c r="H31" s="7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
         <v>9</v>
       </c>
       <c r="J31" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L31" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
       </c>
-      <c r="N31" s="8"/>
+      <c r="N31" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="O31" s="7">
         <v>2</v>
       </c>
@@ -2570,45 +2633,47 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>3010</v>
+        <v>11004</v>
       </c>
       <c r="B32" s="7">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D32" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="7">
         <v>40000</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
         <v>80000</v>
       </c>
-      <c r="F32" s="7">
-        <v>1600000</v>
-      </c>
       <c r="G32" s="7">
-        <v>16000000</v>
+        <v>800000000</v>
       </c>
       <c r="H32" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>9</v>
       </c>
       <c r="J32" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L32" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
       </c>
-      <c r="N32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="O32" s="7">
         <v>2</v>
       </c>
@@ -2618,44 +2683,46 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>3011</v>
+        <v>11005</v>
       </c>
       <c r="B33" s="7">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C33" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D33" s="7">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="E33" s="7">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F33" s="7">
-        <v>16000000</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>200000</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1000000000</v>
+      </c>
       <c r="H33" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J33" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L33" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
       </c>
-      <c r="N33" s="8">
-        <v>1000000</v>
+      <c r="N33" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="O33" s="7">
         <v>2</v>
@@ -2666,45 +2733,47 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>3012</v>
+        <v>11006</v>
       </c>
       <c r="B34" s="7">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D34" s="7">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="E34" s="7">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="F34" s="7">
-        <v>1600000</v>
+        <v>400000</v>
       </c>
       <c r="G34" s="7">
-        <v>16000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H34" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
         <v>9</v>
       </c>
       <c r="J34" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L34" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
       </c>
-      <c r="N34" s="8"/>
+      <c r="N34" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="O34" s="7">
         <v>2</v>
       </c>
@@ -2714,45 +2783,47 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>3013</v>
+        <v>11007</v>
       </c>
       <c r="B35" s="7">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E35" s="7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="F35" s="7">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="G35" s="7">
-        <v>40000000</v>
+        <v>2000000000</v>
       </c>
       <c r="H35" s="7">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
         <v>9</v>
       </c>
       <c r="J35" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L35" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
       </c>
-      <c r="N35" s="8"/>
+      <c r="N35" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="O35" s="7">
         <v>2</v>
       </c>
@@ -2762,44 +2833,46 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>3014</v>
+        <v>11008</v>
       </c>
       <c r="B36" s="7">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C36" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D36" s="7">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="E36" s="7">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="F36" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="G36" s="7"/>
+        <v>2000000</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2000000000</v>
+      </c>
       <c r="H36" s="7">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K36" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L36" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
       </c>
-      <c r="N36" s="8">
-        <v>1000000</v>
+      <c r="N36" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="O36" s="7">
         <v>2</v>
@@ -2810,34 +2883,34 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>3015</v>
+        <v>21001</v>
       </c>
       <c r="B37" s="7">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D37" s="7">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7">
-        <v>80000000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="7">
         <v>13</v>
@@ -2858,32 +2931,34 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>3016</v>
+        <v>21002</v>
       </c>
       <c r="B38" s="7">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="C38" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D38" s="7">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="G38" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
       <c r="H38" s="7">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J38" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="7">
         <v>13</v>
@@ -2894,9 +2969,7 @@
       <c r="M38" s="7">
         <v>30</v>
       </c>
-      <c r="N38" s="8">
-        <v>5000000</v>
-      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="7">
         <v>2</v>
       </c>
@@ -2906,47 +2979,45 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>11001</v>
+        <v>22001</v>
       </c>
       <c r="B39" s="7">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="C39" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D39" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E39" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="7">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J39" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K39" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
       </c>
-      <c r="N39" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="7">
         <v>2</v>
       </c>
@@ -2956,34 +3027,34 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>11002</v>
+        <v>31001</v>
       </c>
       <c r="B40" s="7">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="C40" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D40" s="7">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E40" s="7">
+        <v>100</v>
+      </c>
+      <c r="F40" s="7">
+        <v>200</v>
+      </c>
+      <c r="G40" s="7">
         <v>2000</v>
-      </c>
-      <c r="F40" s="7">
-        <v>20000</v>
-      </c>
-      <c r="G40" s="7">
-        <v>200000000</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J40" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K40" s="7">
         <v>20</v>
@@ -2994,9 +3065,7 @@
       <c r="M40" s="7">
         <v>30</v>
       </c>
-      <c r="N40" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="7">
         <v>2</v>
       </c>
@@ -3006,34 +3075,34 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>11003</v>
+        <v>32002</v>
       </c>
       <c r="B41" s="7">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="C41" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D41" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="7">
         <v>10000</v>
       </c>
-      <c r="E41" s="7">
-        <v>20000</v>
-      </c>
       <c r="F41" s="7">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="G41" s="7">
-        <v>400000000</v>
+        <v>2000000</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J41" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K41" s="7">
         <v>20</v>
@@ -3044,9 +3113,7 @@
       <c r="M41" s="7">
         <v>30</v>
       </c>
-      <c r="N41" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="N41" s="8"/>
       <c r="O41" s="7">
         <v>2</v>
       </c>
@@ -3056,34 +3123,34 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>11004</v>
+        <v>4001</v>
       </c>
       <c r="B42" s="7">
-        <v>104</v>
+        <v>1001</v>
       </c>
       <c r="C42" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D42" s="7">
-        <v>20000</v>
+        <v>5</v>
       </c>
       <c r="E42" s="7">
-        <v>40000</v>
+        <v>10</v>
       </c>
       <c r="F42" s="7">
-        <v>80000</v>
+        <v>200</v>
       </c>
       <c r="G42" s="7">
-        <v>800000000</v>
+        <v>2000</v>
       </c>
       <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5</v>
+      </c>
+      <c r="J42" s="7">
         <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>9</v>
-      </c>
-      <c r="J42" s="7">
-        <v>4</v>
       </c>
       <c r="K42" s="7">
         <v>20</v>
@@ -3094,9 +3161,7 @@
       <c r="M42" s="7">
         <v>30</v>
       </c>
-      <c r="N42" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="N42" s="8"/>
       <c r="O42" s="7">
         <v>2</v>
       </c>
@@ -3106,34 +3171,34 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>11005</v>
+        <v>4002</v>
       </c>
       <c r="B43" s="7">
-        <v>105</v>
+        <v>1002</v>
       </c>
       <c r="C43" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D43" s="7">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="E43" s="7">
-        <v>100000</v>
+        <v>20</v>
       </c>
       <c r="F43" s="7">
-        <v>200000</v>
+        <v>400</v>
       </c>
       <c r="G43" s="7">
-        <v>1000000000</v>
+        <v>4000</v>
       </c>
       <c r="H43" s="7">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5</v>
+      </c>
+      <c r="J43" s="7">
         <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>9</v>
-      </c>
-      <c r="J43" s="7">
-        <v>4</v>
       </c>
       <c r="K43" s="7">
         <v>20</v>
@@ -3144,9 +3209,7 @@
       <c r="M43" s="7">
         <v>30</v>
       </c>
-      <c r="N43" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="7">
         <v>2</v>
       </c>
@@ -3156,34 +3219,34 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>11006</v>
+        <v>5001</v>
       </c>
       <c r="B44" s="7">
-        <v>106</v>
+        <v>1003</v>
       </c>
       <c r="C44" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>100000</v>
+        <v>25</v>
       </c>
       <c r="E44" s="7">
-        <v>200000</v>
+        <v>50</v>
       </c>
       <c r="F44" s="7">
-        <v>400000</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="7">
-        <v>1000000000</v>
+        <v>10000</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I44" s="7">
         <v>9</v>
       </c>
       <c r="J44" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K44" s="7">
         <v>20</v>
@@ -3194,9 +3257,7 @@
       <c r="M44" s="7">
         <v>30</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="N44" s="8"/>
       <c r="O44" s="7">
         <v>2</v>
       </c>
@@ -3206,47 +3267,45 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>11007</v>
+        <v>5002</v>
       </c>
       <c r="B45" s="7">
-        <v>107</v>
+        <v>1004</v>
       </c>
       <c r="C45" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>200000</v>
+        <v>25</v>
       </c>
       <c r="E45" s="7">
-        <v>400000</v>
+        <v>50</v>
       </c>
       <c r="F45" s="7">
-        <v>800000</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="7">
-        <v>2000000000</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I45" s="7">
         <v>9</v>
       </c>
       <c r="J45" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L45" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M45" s="7">
         <v>30</v>
       </c>
-      <c r="N45" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="N45" s="8"/>
       <c r="O45" s="7">
         <v>2</v>
       </c>
@@ -3256,47 +3315,45 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>11008</v>
+        <v>5003</v>
       </c>
       <c r="B46" s="7">
-        <v>108</v>
+        <v>1005</v>
       </c>
       <c r="C46" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D46" s="7">
-        <v>500000</v>
+        <v>100</v>
       </c>
       <c r="E46" s="7">
-        <v>1000000</v>
+        <v>200</v>
       </c>
       <c r="F46" s="7">
-        <v>2000000</v>
+        <v>4000</v>
       </c>
       <c r="G46" s="7">
-        <v>2000000000</v>
+        <v>40000</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I46" s="7">
         <v>9</v>
       </c>
       <c r="J46" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L46" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M46" s="7">
         <v>30</v>
       </c>
-      <c r="N46" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="N46" s="8"/>
       <c r="O46" s="7">
         <v>2</v>
       </c>
@@ -3306,34 +3363,34 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>21001</v>
+        <v>5004</v>
       </c>
       <c r="B47" s="7">
-        <v>201</v>
+        <v>1006</v>
       </c>
       <c r="C47" s="7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="7">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F47" s="7">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G47" s="7">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I47" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="7">
         <v>13</v>
@@ -3354,34 +3411,34 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>21002</v>
+        <v>5005</v>
       </c>
       <c r="B48" s="7">
-        <v>202</v>
+        <v>1007</v>
       </c>
       <c r="C48" s="7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E48" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="7">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G48" s="7">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I48" s="7">
         <v>9</v>
       </c>
       <c r="J48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="7">
         <v>13</v>
@@ -3402,34 +3459,34 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>22001</v>
+        <v>6001</v>
       </c>
       <c r="B49" s="7">
-        <v>221</v>
+        <v>1008</v>
       </c>
       <c r="C49" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="7">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="7">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I49" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="7">
         <v>13</v>
@@ -3450,40 +3507,40 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>31001</v>
+        <v>6002</v>
       </c>
       <c r="B50" s="7">
-        <v>301</v>
+        <v>1009</v>
       </c>
       <c r="C50" s="7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D50" s="7">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="E50" s="7">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="F50" s="7">
-        <v>200</v>
+        <v>80000</v>
       </c>
       <c r="G50" s="7">
-        <v>2000</v>
+        <v>800000</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I50" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L50" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M50" s="7">
         <v>30</v>
@@ -3498,13 +3555,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>32002</v>
+        <v>6003</v>
       </c>
       <c r="B51" s="7">
-        <v>302</v>
+        <v>1010</v>
       </c>
       <c r="C51" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D51" s="7">
         <v>5000</v>
@@ -3519,19 +3576,19 @@
         <v>2000000</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I51" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L51" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M51" s="7">
         <v>30</v>
@@ -3546,40 +3603,40 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>4001</v>
+        <v>6004</v>
       </c>
       <c r="B52" s="7">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="C52" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" s="7">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="E52" s="7">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="F52" s="7">
-        <v>200</v>
+        <v>400000</v>
       </c>
       <c r="G52" s="7">
-        <v>2000</v>
+        <v>4000000</v>
       </c>
       <c r="H52" s="7">
+        <v>6000</v>
+      </c>
+      <c r="I52" s="7">
+        <v>9</v>
+      </c>
+      <c r="J52" s="7">
         <v>1</v>
       </c>
-      <c r="I52" s="7">
-        <v>5</v>
-      </c>
-      <c r="J52" s="7">
-        <v>0</v>
-      </c>
       <c r="K52" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L52" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M52" s="7">
         <v>30</v>
@@ -3594,45 +3651,45 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>4002</v>
+        <v>6005</v>
       </c>
       <c r="B53" s="7">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="C53" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53" s="7">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E53" s="7">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="F53" s="7">
-        <v>400</v>
-      </c>
-      <c r="G53" s="7">
-        <v>4000</v>
-      </c>
+        <v>4000000</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="7">
-        <v>5</v>
+        <v>6000</v>
       </c>
       <c r="I53" s="7">
         <v>5</v>
       </c>
       <c r="J53" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L53" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M53" s="7">
         <v>30</v>
       </c>
-      <c r="N53" s="8"/>
+      <c r="N53" s="8">
+        <v>100000</v>
+      </c>
       <c r="O53" s="7">
         <v>2</v>
       </c>
@@ -3642,40 +3699,40 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <v>5001</v>
+        <v>6006</v>
       </c>
       <c r="B54" s="7">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="C54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="7">
-        <v>25</v>
+        <v>10000</v>
       </c>
       <c r="E54" s="7">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="F54" s="7">
-        <v>1000</v>
+        <v>400000</v>
       </c>
       <c r="G54" s="7">
-        <v>10000</v>
+        <v>4000000</v>
       </c>
       <c r="H54" s="7">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="I54" s="7">
         <v>9</v>
       </c>
       <c r="J54" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K54" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L54" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M54" s="7">
         <v>30</v>
@@ -3690,28 +3747,28 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>5002</v>
+        <v>6007</v>
       </c>
       <c r="B55" s="7">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="C55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="7">
-        <v>25</v>
+        <v>20000</v>
       </c>
       <c r="E55" s="7">
-        <v>50</v>
+        <v>40000</v>
       </c>
       <c r="F55" s="7">
-        <v>1000</v>
+        <v>800000</v>
       </c>
       <c r="G55" s="7">
-        <v>10000</v>
+        <v>8000000</v>
       </c>
       <c r="H55" s="7">
-        <v>10</v>
+        <v>12000</v>
       </c>
       <c r="I55" s="7">
         <v>9</v>
@@ -3738,34 +3795,32 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <v>5003</v>
+        <v>6008</v>
       </c>
       <c r="B56" s="7">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="C56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="7">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="E56" s="7">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="F56" s="7">
-        <v>4000</v>
-      </c>
-      <c r="G56" s="7">
-        <v>40000</v>
-      </c>
+        <v>8000000</v>
+      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7">
-        <v>50</v>
+        <v>12000</v>
       </c>
       <c r="I56" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="7">
         <v>13</v>
@@ -3776,7 +3831,9 @@
       <c r="M56" s="7">
         <v>30</v>
       </c>
-      <c r="N56" s="8"/>
+      <c r="N56" s="8">
+        <v>500000</v>
+      </c>
       <c r="O56" s="7">
         <v>2</v>
       </c>
@@ -3786,34 +3843,34 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>5004</v>
+        <v>6009</v>
       </c>
       <c r="B57" s="7">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="C57" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="7">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="E57" s="7">
-        <v>400</v>
+        <v>40000</v>
       </c>
       <c r="F57" s="7">
-        <v>8000</v>
+        <v>800000</v>
       </c>
       <c r="G57" s="7">
-        <v>80000</v>
+        <v>8000000</v>
       </c>
       <c r="H57" s="7">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="I57" s="7">
         <v>9</v>
       </c>
       <c r="J57" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K57" s="7">
         <v>13</v>
@@ -3834,28 +3891,28 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>5005</v>
+        <v>6010</v>
       </c>
       <c r="B58" s="7">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="C58" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="7">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="E58" s="7">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="F58" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="G58" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="H58" s="7">
         <v>20000</v>
-      </c>
-      <c r="G58" s="7">
-        <v>200000</v>
-      </c>
-      <c r="H58" s="7">
-        <v>300</v>
       </c>
       <c r="I58" s="7">
         <v>9</v>
@@ -3882,34 +3939,32 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>6001</v>
+        <v>6011</v>
       </c>
       <c r="B59" s="7">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="C59" s="7">
         <v>6</v>
       </c>
       <c r="D59" s="7">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="E59" s="7">
-        <v>2000</v>
+        <v>80000</v>
       </c>
       <c r="F59" s="7">
-        <v>40000</v>
-      </c>
-      <c r="G59" s="7">
-        <v>400000</v>
-      </c>
+        <v>16000000</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59" s="7">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="I59" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="7">
         <v>13</v>
@@ -3920,7 +3975,9 @@
       <c r="M59" s="7">
         <v>30</v>
       </c>
-      <c r="N59" s="8"/>
+      <c r="N59" s="8">
+        <v>1000000</v>
+      </c>
       <c r="O59" s="7">
         <v>2</v>
       </c>
@@ -3930,34 +3987,34 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <v>6002</v>
+        <v>6012</v>
       </c>
       <c r="B60" s="7">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C60" s="7">
         <v>6</v>
       </c>
       <c r="D60" s="7">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="E60" s="7">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="F60" s="7">
-        <v>80000</v>
+        <v>1600000</v>
       </c>
       <c r="G60" s="7">
-        <v>800000</v>
+        <v>16000000</v>
       </c>
       <c r="H60" s="7">
-        <v>1200</v>
+        <v>20000</v>
       </c>
       <c r="I60" s="7">
         <v>9</v>
       </c>
       <c r="J60" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K60" s="7">
         <v>13</v>
@@ -3978,28 +4035,28 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>6003</v>
+        <v>6013</v>
       </c>
       <c r="B61" s="7">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="C61" s="7">
         <v>6</v>
       </c>
       <c r="D61" s="7">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="E61" s="7">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="F61" s="7">
-        <v>200000</v>
+        <v>4000000</v>
       </c>
       <c r="G61" s="7">
-        <v>2000000</v>
+        <v>40000000</v>
       </c>
       <c r="H61" s="7">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="I61" s="7">
         <v>9</v>
@@ -4026,34 +4083,32 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <v>6004</v>
+        <v>6014</v>
       </c>
       <c r="B62" s="7">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="C62" s="7">
         <v>6</v>
       </c>
       <c r="D62" s="7">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E62" s="7">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="F62" s="7">
-        <v>400000</v>
-      </c>
-      <c r="G62" s="7">
-        <v>4000000</v>
-      </c>
+        <v>40000000</v>
+      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="7">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="I62" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="7">
         <v>13</v>
@@ -4064,7 +4119,9 @@
       <c r="M62" s="7">
         <v>30</v>
       </c>
-      <c r="N62" s="8"/>
+      <c r="N62" s="8">
+        <v>1000000</v>
+      </c>
       <c r="O62" s="7">
         <v>2</v>
       </c>
@@ -4074,32 +4131,34 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="B63" s="7">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="C63" s="7">
         <v>6</v>
       </c>
       <c r="D63" s="7">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="E63" s="7">
-        <v>20000</v>
+        <v>400000</v>
       </c>
       <c r="F63" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G63" s="7"/>
+        <v>8000000</v>
+      </c>
+      <c r="G63" s="7">
+        <v>80000000</v>
+      </c>
       <c r="H63" s="7">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="I63" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J63" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="7">
         <v>13</v>
@@ -4110,9 +4169,7 @@
       <c r="M63" s="7">
         <v>30</v>
       </c>
-      <c r="N63" s="8">
-        <v>100000</v>
-      </c>
+      <c r="N63" s="8"/>
       <c r="O63" s="7">
         <v>2</v>
       </c>
@@ -4122,34 +4179,32 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <v>6006</v>
+        <v>6016</v>
       </c>
       <c r="B64" s="7">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="C64" s="7">
         <v>6</v>
       </c>
       <c r="D64" s="7">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="E64" s="7">
-        <v>20000</v>
+        <v>400000</v>
       </c>
       <c r="F64" s="7">
-        <v>400000</v>
-      </c>
-      <c r="G64" s="7">
-        <v>4000000</v>
-      </c>
+        <v>80000000</v>
+      </c>
+      <c r="G64" s="7"/>
       <c r="H64" s="7">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="I64" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J64" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K64" s="7">
         <v>13</v>
@@ -4160,7 +4215,9 @@
       <c r="M64" s="7">
         <v>30</v>
       </c>
-      <c r="N64" s="8"/>
+      <c r="N64" s="8">
+        <v>5000000</v>
+      </c>
       <c r="O64" s="7">
         <v>2</v>
       </c>
@@ -4170,45 +4227,47 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>6007</v>
+        <v>12001</v>
       </c>
       <c r="B65" s="7">
-        <v>1014</v>
+        <v>1121</v>
       </c>
       <c r="C65" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D65" s="7">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="E65" s="7">
-        <v>40000</v>
+        <v>150</v>
       </c>
       <c r="F65" s="7">
-        <v>800000</v>
+        <v>2000</v>
       </c>
       <c r="G65" s="7">
-        <v>8000000</v>
+        <v>20000000</v>
       </c>
       <c r="H65" s="7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
         <v>9</v>
       </c>
       <c r="J65" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K65" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L65" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M65" s="7">
         <v>30</v>
       </c>
-      <c r="N65" s="8"/>
+      <c r="N65" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="O65" s="7">
         <v>2</v>
       </c>
@@ -4218,44 +4277,46 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>6008</v>
+        <v>12002</v>
       </c>
       <c r="B66" s="7">
-        <v>1015</v>
+        <v>1122</v>
       </c>
       <c r="C66" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D66" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="7">
         <v>20000</v>
       </c>
-      <c r="E66" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F66" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7">
+        <v>200000000</v>
+      </c>
       <c r="H66" s="7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J66" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K66" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L66" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M66" s="7">
         <v>30</v>
       </c>
-      <c r="N66" s="8">
-        <v>500000</v>
+      <c r="N66" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="O66" s="7">
         <v>2</v>
@@ -4266,45 +4327,47 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>6009</v>
+        <v>12003</v>
       </c>
       <c r="B67" s="7">
-        <v>1016</v>
+        <v>1123</v>
       </c>
       <c r="C67" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D67" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E67" s="7">
         <v>20000</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F67" s="7">
         <v>40000</v>
       </c>
-      <c r="F67" s="7">
-        <v>800000</v>
-      </c>
       <c r="G67" s="7">
-        <v>8000000</v>
+        <v>400000000</v>
       </c>
       <c r="H67" s="7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
         <v>9</v>
       </c>
       <c r="J67" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K67" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L67" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M67" s="7">
         <v>30</v>
       </c>
-      <c r="N67" s="8"/>
+      <c r="N67" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="O67" s="7">
         <v>2</v>
       </c>
@@ -4314,45 +4377,47 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>6010</v>
+        <v>12004</v>
       </c>
       <c r="B68" s="7">
-        <v>1017</v>
+        <v>1124</v>
       </c>
       <c r="C68" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D68" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E68" s="7">
         <v>40000</v>
       </c>
-      <c r="E68" s="7">
+      <c r="F68" s="7">
         <v>80000</v>
       </c>
-      <c r="F68" s="7">
-        <v>1600000</v>
-      </c>
       <c r="G68" s="7">
-        <v>16000000</v>
+        <v>800000000</v>
       </c>
       <c r="H68" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
         <v>9</v>
       </c>
       <c r="J68" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K68" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L68" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M68" s="7">
         <v>30</v>
       </c>
-      <c r="N68" s="8"/>
+      <c r="N68" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="O68" s="7">
         <v>2</v>
       </c>
@@ -4362,44 +4427,46 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>6011</v>
+        <v>12005</v>
       </c>
       <c r="B69" s="7">
-        <v>1018</v>
+        <v>1125</v>
       </c>
       <c r="C69" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D69" s="7">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="E69" s="7">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F69" s="7">
-        <v>16000000</v>
-      </c>
-      <c r="G69" s="7"/>
+        <v>200000</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1000000000</v>
+      </c>
       <c r="H69" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J69" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K69" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L69" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M69" s="7">
         <v>30</v>
       </c>
-      <c r="N69" s="8">
-        <v>1000000</v>
+      <c r="N69" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="O69" s="7">
         <v>2</v>
@@ -4410,45 +4477,47 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>6012</v>
+        <v>12006</v>
       </c>
       <c r="B70" s="7">
-        <v>1019</v>
+        <v>1126</v>
       </c>
       <c r="C70" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D70" s="7">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="E70" s="7">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="F70" s="7">
-        <v>1600000</v>
+        <v>400000</v>
       </c>
       <c r="G70" s="7">
-        <v>16000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H70" s="7">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
         <v>9</v>
       </c>
       <c r="J70" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K70" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L70" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M70" s="7">
         <v>30</v>
       </c>
-      <c r="N70" s="8"/>
+      <c r="N70" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="O70" s="7">
         <v>2</v>
       </c>
@@ -4458,45 +4527,47 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>6013</v>
+        <v>12007</v>
       </c>
       <c r="B71" s="7">
-        <v>1020</v>
+        <v>1127</v>
       </c>
       <c r="C71" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D71" s="7">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E71" s="7">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="F71" s="7">
-        <v>4000000</v>
+        <v>800000</v>
       </c>
       <c r="G71" s="7">
-        <v>40000000</v>
+        <v>2000000000</v>
       </c>
       <c r="H71" s="7">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
         <v>9</v>
       </c>
       <c r="J71" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K71" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L71" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M71" s="7">
         <v>30</v>
       </c>
-      <c r="N71" s="8"/>
+      <c r="N71" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="O71" s="7">
         <v>2</v>
       </c>
@@ -4506,44 +4577,46 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>6014</v>
+        <v>12008</v>
       </c>
       <c r="B72" s="7">
-        <v>1021</v>
+        <v>1128</v>
       </c>
       <c r="C72" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D72" s="7">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="E72" s="7">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="F72" s="7">
-        <v>40000000</v>
-      </c>
-      <c r="G72" s="7"/>
+        <v>2000000</v>
+      </c>
+      <c r="G72" s="7">
+        <v>2000000000</v>
+      </c>
       <c r="H72" s="7">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J72" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K72" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L72" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M72" s="7">
         <v>30</v>
       </c>
-      <c r="N72" s="8">
-        <v>1000000</v>
+      <c r="N72" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="O72" s="7">
         <v>2</v>
@@ -4553,572 +4626,131 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>6015</v>
-      </c>
-      <c r="B73" s="7">
-        <v>1022</v>
-      </c>
-      <c r="C73" s="7">
-        <v>6</v>
-      </c>
-      <c r="D73" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E73" s="7">
-        <v>400000</v>
-      </c>
-      <c r="F73" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="G73" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="H73" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I73" s="7">
-        <v>9</v>
-      </c>
-      <c r="J73" s="7">
-        <v>1</v>
-      </c>
-      <c r="K73" s="7">
-        <v>13</v>
-      </c>
-      <c r="L73" s="7">
-        <v>8</v>
-      </c>
-      <c r="M73" s="7">
-        <v>30</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="7">
-        <v>2</v>
-      </c>
-      <c r="P73" s="7">
-        <v>5</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>6016</v>
-      </c>
-      <c r="B74" s="7">
-        <v>1023</v>
-      </c>
-      <c r="C74" s="7">
-        <v>6</v>
-      </c>
-      <c r="D74" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E74" s="7">
-        <v>400000</v>
-      </c>
-      <c r="F74" s="7">
-        <v>80000000</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7">
-        <v>100000</v>
-      </c>
-      <c r="I74" s="7">
-        <v>5</v>
-      </c>
-      <c r="J74" s="7">
-        <v>2</v>
-      </c>
-      <c r="K74" s="7">
-        <v>13</v>
-      </c>
-      <c r="L74" s="7">
-        <v>8</v>
-      </c>
-      <c r="M74" s="7">
-        <v>30</v>
-      </c>
-      <c r="N74" s="8">
-        <v>5000000</v>
-      </c>
-      <c r="O74" s="7">
-        <v>2</v>
-      </c>
-      <c r="P74" s="7">
-        <v>5</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>12001</v>
-      </c>
-      <c r="B75" s="7">
-        <v>1121</v>
-      </c>
-      <c r="C75" s="7">
-        <v>12</v>
-      </c>
-      <c r="D75" s="7">
-        <v>75</v>
-      </c>
-      <c r="E75" s="7">
-        <v>150</v>
-      </c>
-      <c r="F75" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G75" s="7">
-        <v>20000000</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>9</v>
-      </c>
-      <c r="J75" s="7">
-        <v>4</v>
-      </c>
-      <c r="K75" s="7">
-        <v>20</v>
-      </c>
-      <c r="L75" s="7">
-        <v>15</v>
-      </c>
-      <c r="M75" s="7">
-        <v>30</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O75" s="7">
-        <v>2</v>
-      </c>
-      <c r="P75" s="7">
-        <v>5</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>12002</v>
-      </c>
-      <c r="B76" s="7">
-        <v>1122</v>
-      </c>
-      <c r="C76" s="7">
-        <v>12</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E76" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F76" s="7">
-        <v>20000</v>
-      </c>
-      <c r="G76" s="7">
-        <v>200000000</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>9</v>
-      </c>
-      <c r="J76" s="7">
-        <v>4</v>
-      </c>
-      <c r="K76" s="7">
-        <v>20</v>
-      </c>
-      <c r="L76" s="7">
-        <v>15</v>
-      </c>
-      <c r="M76" s="7">
-        <v>30</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O76" s="7">
-        <v>2</v>
-      </c>
-      <c r="P76" s="7">
-        <v>5</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>12003</v>
-      </c>
-      <c r="B77" s="7">
-        <v>1123</v>
-      </c>
-      <c r="C77" s="7">
-        <v>12</v>
-      </c>
-      <c r="D77" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E77" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F77" s="7">
-        <v>40000</v>
-      </c>
-      <c r="G77" s="7">
-        <v>400000000</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>9</v>
-      </c>
-      <c r="J77" s="7">
-        <v>4</v>
-      </c>
-      <c r="K77" s="7">
-        <v>20</v>
-      </c>
-      <c r="L77" s="7">
-        <v>15</v>
-      </c>
-      <c r="M77" s="7">
-        <v>30</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O77" s="7">
-        <v>2</v>
-      </c>
-      <c r="P77" s="7">
-        <v>5</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>12004</v>
-      </c>
-      <c r="B78" s="7">
-        <v>1124</v>
-      </c>
-      <c r="C78" s="7">
-        <v>12</v>
-      </c>
-      <c r="D78" s="7">
-        <v>20000</v>
-      </c>
-      <c r="E78" s="7">
-        <v>40000</v>
-      </c>
-      <c r="F78" s="7">
-        <v>80000</v>
-      </c>
-      <c r="G78" s="7">
-        <v>800000000</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>9</v>
-      </c>
-      <c r="J78" s="7">
-        <v>4</v>
-      </c>
-      <c r="K78" s="7">
-        <v>20</v>
-      </c>
-      <c r="L78" s="7">
-        <v>15</v>
-      </c>
-      <c r="M78" s="7">
-        <v>30</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O78" s="7">
-        <v>2</v>
-      </c>
-      <c r="P78" s="7">
-        <v>5</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>12005</v>
-      </c>
-      <c r="B79" s="7">
-        <v>1125</v>
-      </c>
-      <c r="C79" s="7">
-        <v>12</v>
-      </c>
-      <c r="D79" s="7">
-        <v>50000</v>
-      </c>
-      <c r="E79" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F79" s="7">
-        <v>200000</v>
-      </c>
-      <c r="G79" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>9</v>
-      </c>
-      <c r="J79" s="7">
-        <v>4</v>
-      </c>
-      <c r="K79" s="7">
-        <v>20</v>
-      </c>
-      <c r="L79" s="7">
-        <v>15</v>
-      </c>
-      <c r="M79" s="7">
-        <v>30</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O79" s="7">
-        <v>2</v>
-      </c>
-      <c r="P79" s="7">
-        <v>5</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>12006</v>
-      </c>
-      <c r="B80" s="7">
-        <v>1126</v>
-      </c>
-      <c r="C80" s="7">
-        <v>12</v>
-      </c>
-      <c r="D80" s="7">
-        <v>100000</v>
-      </c>
-      <c r="E80" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F80" s="7">
-        <v>400000</v>
-      </c>
-      <c r="G80" s="7">
-        <v>1000000000</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <v>9</v>
-      </c>
-      <c r="J80" s="7">
-        <v>4</v>
-      </c>
-      <c r="K80" s="7">
-        <v>20</v>
-      </c>
-      <c r="L80" s="7">
-        <v>15</v>
-      </c>
-      <c r="M80" s="7">
-        <v>30</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O80" s="7">
-        <v>2</v>
-      </c>
-      <c r="P80" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>12007</v>
-      </c>
-      <c r="B81" s="7">
-        <v>1127</v>
-      </c>
-      <c r="C81" s="7">
-        <v>12</v>
-      </c>
-      <c r="D81" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E81" s="7">
-        <v>400000</v>
-      </c>
-      <c r="F81" s="7">
-        <v>800000</v>
-      </c>
-      <c r="G81" s="7">
-        <v>2000000000</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <v>9</v>
-      </c>
-      <c r="J81" s="7">
-        <v>4</v>
-      </c>
-      <c r="K81" s="7">
-        <v>20</v>
-      </c>
-      <c r="L81" s="7">
-        <v>15</v>
-      </c>
-      <c r="M81" s="7">
-        <v>30</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O81" s="7">
-        <v>2</v>
-      </c>
-      <c r="P81" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>12008</v>
-      </c>
-      <c r="B82" s="7">
-        <v>1128</v>
-      </c>
-      <c r="C82" s="7">
-        <v>12</v>
-      </c>
-      <c r="D82" s="7">
-        <v>500000</v>
-      </c>
-      <c r="E82" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F82" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="G82" s="7">
-        <v>2000000000</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <v>9</v>
-      </c>
-      <c r="J82" s="7">
-        <v>4</v>
-      </c>
-      <c r="K82" s="7">
-        <v>20</v>
-      </c>
-      <c r="L82" s="7">
-        <v>15</v>
-      </c>
-      <c r="M82" s="7">
-        <v>30</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O82" s="7">
-        <v>2</v>
-      </c>
-      <c r="P82" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -6316,61 +5948,6 @@
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="5"/>
-      <c r="B314" s="5"/>
-      <c r="C314" s="5"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="5"/>
-      <c r="B315" s="5"/>
-      <c r="C315" s="5"/>
-      <c r="D315" s="5"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="5"/>
-      <c r="B316" s="5"/>
-      <c r="C316" s="5"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="5"/>
-      <c r="B317" s="5"/>
-      <c r="C317" s="5"/>
-      <c r="D317" s="5"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="5"/>
-      <c r="B318" s="5"/>
-      <c r="C318" s="5"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="5"/>
-      <c r="B319" s="5"/>
-      <c r="C319" s="5"/>
-      <c r="D319" s="5"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="5"/>
-      <c r="B320" s="5"/>
-      <c r="C320" s="5"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="5"/>
-      <c r="B321" s="5"/>
-      <c r="C321" s="5"/>
-      <c r="D321" s="5"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="5"/>
-      <c r="B322" s="5"/>
-      <c r="C322" s="5"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="5"/>
-      <c r="B323" s="5"/>
-      <c r="C323" s="5"/>
-      <c r="D323" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6466,119 +6043,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6586,5 +6184,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>